--- a/Others/En France/Les mots.xlsx
+++ b/Others/En France/Les mots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igorromero/NotesInGeneral/Others/En France/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B013D0-0071-4349-A781-C7EA1347D742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E41BCF-687F-2743-95E1-5CEA7C5F21BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="58880" yWindow="-520" windowWidth="27320" windowHeight="14860" xr2:uid="{FAB4D674-A391-401D-ACEA-E0147A97A104}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="107">
   <si>
     <t>Les Verbs</t>
   </si>
@@ -452,14 +452,44 @@
     <t>Blouson (blouson)</t>
   </si>
   <si>
-    <t>Roube (rob)</t>
-  </si>
-  <si>
-    <t>Chaussettes (chusset)</t>
-  </si>
-  <si>
-    <r>
-      <t>Pantalon</t>
+    <t>Aussi (ossi)</t>
+  </si>
+  <si>
+    <t>Bonnet (bonê)</t>
+  </si>
+  <si>
+    <t>Parapluie (parrraplui)</t>
+  </si>
+  <si>
+    <t>Mots (mó)</t>
+  </si>
+  <si>
+    <t>Callor</t>
+  </si>
+  <si>
+    <t>Anotação</t>
+  </si>
+  <si>
+    <t>Clima ruim</t>
+  </si>
+  <si>
+    <t>Cimat</t>
+  </si>
+  <si>
+    <t>Clilma bom</t>
+  </si>
+  <si>
+    <t>Il fait mauvais (move)</t>
+  </si>
+  <si>
+    <t>Il fait Beau (bo)</t>
+  </si>
+  <si>
+    <t>Il fait (fe) Chaud (xo)</t>
+  </si>
+  <si>
+    <r>
+      <t>Il fait Froi</t>
     </r>
     <r>
       <rPr>
@@ -468,7 +498,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>s</t>
+      <t>d</t>
     </r>
     <r>
       <rPr>
@@ -478,66 +508,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (pantalon)</t>
-    </r>
-  </si>
-  <si>
-    <t>Aussi (ossi)</t>
-  </si>
-  <si>
-    <t>Bonnet (bonê)</t>
-  </si>
-  <si>
-    <t>Parapluie (parrraplui)</t>
-  </si>
-  <si>
-    <t>Mots (mó)</t>
-  </si>
-  <si>
-    <t>Callor</t>
-  </si>
-  <si>
-    <t>Anotação</t>
-  </si>
-  <si>
-    <t>Clima ruim</t>
-  </si>
-  <si>
-    <t>Cimat</t>
-  </si>
-  <si>
-    <t>Clilma bom</t>
-  </si>
-  <si>
-    <t>Il fait mauvais (move)</t>
-  </si>
-  <si>
-    <t>Il fait Beau (bo)</t>
-  </si>
-  <si>
-    <t>Il fait (fe) Chaud (xo)</t>
-  </si>
-  <si>
-    <r>
-      <t>Il fait Froi</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> (frrrua)</t>
     </r>
   </si>
@@ -552,13 +522,109 @@
   </si>
   <si>
     <t>Chovendo</t>
+  </si>
+  <si>
+    <t>Sofa</t>
+  </si>
+  <si>
+    <t>Carro</t>
+  </si>
+  <si>
+    <t>Voiture (vuaturrr)</t>
+  </si>
+  <si>
+    <t>Masculin (masculan) / Féminin (feminan)</t>
+  </si>
+  <si>
+    <t>La</t>
+  </si>
+  <si>
+    <t>Le</t>
+  </si>
+  <si>
+    <t>Casa</t>
+  </si>
+  <si>
+    <t>Maison (meson)</t>
+  </si>
+  <si>
+    <t>Table (tabla)</t>
+  </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>L'hotel</t>
+  </si>
+  <si>
+    <t>Le → L'</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Computador</t>
+  </si>
+  <si>
+    <t>Cadeira</t>
+  </si>
+  <si>
+    <t>Livre</t>
+  </si>
+  <si>
+    <t>Livro</t>
+  </si>
+  <si>
+    <t>Cama</t>
+  </si>
+  <si>
+    <t>Chaise (xeze)</t>
+  </si>
+  <si>
+    <t>L'ordinateur (ordinator)</t>
+  </si>
+  <si>
+    <t>Lit (li)</t>
+  </si>
+  <si>
+    <t>Armoire</t>
+  </si>
+  <si>
+    <t>Movel</t>
+  </si>
+  <si>
+    <t>La → L'</t>
+  </si>
+  <si>
+    <t>L'Armoire (armoiar)</t>
+  </si>
+  <si>
+    <t>L'horloge (orloge)</t>
+  </si>
+  <si>
+    <t>Relógio</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Robe (rob)</t>
+  </si>
+  <si>
+    <t>Chaussette (chusset)</t>
+  </si>
+  <si>
+    <t>Pantalon (pantalon)</t>
+  </si>
+  <si>
+    <t>la</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,6 +703,13 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7B7B7B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -658,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -684,11 +757,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -737,15 +831,6 @@
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -760,45 +845,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2AE4C2E-97BE-4C04-ADD6-9F313EDB07B6}" name="Tabela1" displayName="Tabela1" ref="A3:C5" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2AE4C2E-97BE-4C04-ADD6-9F313EDB07B6}" name="Tabela1" displayName="Tabela1" ref="A3:C5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="15">
   <autoFilter ref="A3:C5" xr:uid="{DE50B4A7-4C04-4061-BFC9-D21DCA7EB26B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{70AB697F-58B6-4C53-AA98-9E3B61B84DAE}" name="Les verbs" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B48490D0-DB6A-4087-A2EC-9CDC3D4C332B}" name="Régulier / Irrégulier" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{AC2505BF-3DBC-49D8-9E26-5B826C64BF30}" name="Traduction" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{70AB697F-58B6-4C53-AA98-9E3B61B84DAE}" name="Les verbs" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B48490D0-DB6A-4087-A2EC-9CDC3D4C332B}" name="Régulier / Irrégulier" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{AC2505BF-3DBC-49D8-9E26-5B826C64BF30}" name="Traduction" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DBB2061F-7403-403E-A623-5FC545869920}" name="Tabela3" displayName="Tabela3" ref="E3:F6" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DBB2061F-7403-403E-A623-5FC545869920}" name="Tabela3" displayName="Tabela3" ref="E3:F6" totalsRowShown="0" headerRowDxfId="1" dataDxfId="14">
   <autoFilter ref="E3:F6" xr:uid="{AFF1B087-AA0E-4C13-993F-DD7C7D5AF386}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{654F8279-A79E-446B-9A10-6EFC9353BADC}" name="Les préposition" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{68F141E5-BCFF-45F1-8C42-A0469E916D71}" name="Traduction" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{654F8279-A79E-446B-9A10-6EFC9353BADC}" name="Les préposition" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{68F141E5-BCFF-45F1-8C42-A0469E916D71}" name="Traduction" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{99F915A2-E5D6-49AD-82A9-AAF27B055FCE}" name="Tabela8" displayName="Tabela8" ref="I3:K22" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="I3:K22" xr:uid="{1198EAD1-C6E9-405F-80A9-6F50EAEE7965}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I4:K22">
-    <sortCondition ref="J3:J22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{99F915A2-E5D6-49AD-82A9-AAF27B055FCE}" name="Tabela8" displayName="Tabela8" ref="I3:L33" totalsRowShown="0" headerRowDxfId="0" dataDxfId="11">
+  <autoFilter ref="I3:L33" xr:uid="{1198EAD1-C6E9-405F-80A9-6F50EAEE7965}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I4:L22">
+    <sortCondition ref="K3:K22"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0ED3D45D-EFBC-489C-8054-BFE156327E84}" name="Les mots" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{75B82DD3-2882-4A1E-966A-4C5299BE48AE}" name="Catégorie" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{7CA4CA1D-75C7-4FC6-8FA1-AB9CBFA06CF6}" name="Traduction" dataDxfId="4"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0ED3D45D-EFBC-489C-8054-BFE156327E84}" name="Masculin (masculan) / Féminin (feminan)" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{02B8EC9E-02D5-AD47-8F86-20C0ED0A3ECD}" name="Les mots" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{75B82DD3-2882-4A1E-966A-4C5299BE48AE}" name="Catégorie" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{7CA4CA1D-75C7-4FC6-8FA1-AB9CBFA06CF6}" name="Traduction" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{07992851-DC1D-4BA4-BBA3-4035EE6B60EC}" name="Tabela10" displayName="Tabela10" ref="A4:D6" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{07992851-DC1D-4BA4-BBA3-4035EE6B60EC}" name="Tabela10" displayName="Tabela10" ref="A4:D6" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A4:D6" xr:uid="{0D98C976-8E55-4C10-B76F-EECF3484D2EF}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D461DD1A-ED0B-468B-B1D2-DC2C1D29FB6D}" name="Finissant"/>
@@ -1107,29 +1193,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF14E2DA-1F61-4D3E-BB06-34F5F1D5F3A2}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J7" activeCellId="1" sqref="I23 J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
     <col min="8" max="8" width="2.83203125" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1140,34 +1227,38 @@
       <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="3" spans="1:12" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -1181,17 +1272,20 @@
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>71</v>
+      <c r="I4" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>68</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1207,17 +1301,20 @@
       <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>73</v>
+      <c r="I5" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7"/>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -1225,194 +1322,399 @@
       <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>72</v>
+      <c r="I6" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7"/>
-      <c r="I7" s="2" t="s">
-        <v>70</v>
+      <c r="I7" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" s="7"/>
       <c r="C8"/>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I9" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I10" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I11" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I13" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="2" t="s">
+    </row>
+    <row r="25" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="2" t="s">
+      <c r="L25" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>29</v>
+      <c r="L27" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Others/En France/Les mots.xlsx
+++ b/Others/En France/Les mots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igorromero/NotesInGeneral/Others/En France/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E41BCF-687F-2743-95E1-5CEA7C5F21BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C92E82-6667-EF4A-A9E2-8D832C317581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58880" yWindow="-520" windowWidth="27320" windowHeight="14860" xr2:uid="{FAB4D674-A391-401D-ACEA-E0147A97A104}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26880" windowHeight="16300" activeTab="1" xr2:uid="{FAB4D674-A391-401D-ACEA-E0147A97A104}"/>
   </bookViews>
   <sheets>
     <sheet name="MOTS" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="166">
   <si>
     <t>Les Verbs</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Dans</t>
   </si>
   <si>
-    <t>Em</t>
-  </si>
-  <si>
     <t>Objet</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>Camiseta</t>
   </si>
   <si>
-    <t>Nom</t>
-  </si>
-  <si>
     <t>Também</t>
   </si>
   <si>
@@ -126,12 +120,6 @@
     <t>Toca</t>
   </si>
   <si>
-    <t>Climat</t>
-  </si>
-  <si>
-    <t>Frio</t>
-  </si>
-  <si>
     <t>Guarda-chuvas</t>
   </si>
   <si>
@@ -144,110 +132,104 @@
     <t>Colocar/Pôr</t>
   </si>
   <si>
-    <t>Finissant</t>
-  </si>
-  <si>
     <t>Des exemples</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Les mots qui </t>
+      <t>Alle</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Le</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ts</t>
+    </r>
+  </si>
+  <si>
+    <t>Mettre (Je mets)</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>ne prononce pas</t>
+  </si>
+  <si>
+    <t>"E" (à la fin)</t>
+  </si>
+  <si>
+    <t>"Ent" (à la fin)</t>
+  </si>
+  <si>
+    <r>
+      <t>Le</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ne sont pas prononce</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Alle</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>r</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Le</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Mo</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="16"/>
-        <color theme="1"/>
+      <t xml:space="preserve"> mo</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>ts</t>
-    </r>
-  </si>
-  <si>
-    <t>Mettre (Je mets)</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>ne prononce pas</t>
-  </si>
-  <si>
-    <t>"E" (à la fin)</t>
-  </si>
-  <si>
-    <t>"Ent" (à la fin)</t>
-  </si>
-  <si>
-    <t>France, valis, rob, echarp, paraplui</t>
-  </si>
-  <si>
-    <t>Met</t>
-  </si>
-  <si>
-    <r>
-      <t>Le</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>s</t>
     </r>
     <r>
       <rPr>
@@ -257,7 +239,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> mo</t>
+      <t xml:space="preserve"> ave</t>
     </r>
     <r>
       <rPr>
@@ -266,7 +248,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>ts</t>
+      <t>c</t>
     </r>
     <r>
       <rPr>
@@ -276,7 +258,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ave</t>
+      <t xml:space="preserve"> _ (souligne [sublinhado]) ne so</t>
     </r>
     <r>
       <rPr>
@@ -285,7 +267,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>c</t>
+      <t>nt</t>
     </r>
     <r>
       <rPr>
@@ -295,7 +277,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> _ (souligne [sublinhado]) ne so</t>
+      <t xml:space="preserve"> pa</t>
     </r>
     <r>
       <rPr>
@@ -304,7 +286,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>nt</t>
+      <t>s</t>
     </r>
     <r>
       <rPr>
@@ -314,7 +296,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> pa</t>
+      <t xml:space="preserve"> prononcé</t>
     </r>
     <r>
       <rPr>
@@ -325,55 +307,38 @@
       </rPr>
       <t>s</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+  </si>
+  <si>
+    <t>Remarques</t>
+  </si>
+  <si>
+    <t>Mots</t>
+  </si>
+  <si>
+    <t>Palavra</t>
+  </si>
+  <si>
+    <r>
+      <t>France, valis</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> prononcé</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>s</t>
-    </r>
-  </si>
-  <si>
-    <t>Remarques</t>
-  </si>
-  <si>
-    <t>Mots</t>
-  </si>
-  <si>
-    <t>Palavra</t>
-  </si>
-  <si>
-    <t>Prononciation En portugais</t>
-  </si>
-  <si>
-    <r>
-      <t>Mett</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>ent</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>France, valis</t>
+      <t>, rob</t>
     </r>
     <r>
       <rPr>
@@ -392,7 +357,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, rob</t>
+      <t>, écharp</t>
     </r>
     <r>
       <rPr>
@@ -411,7 +376,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, écharp</t>
+      <t>, paraplui</t>
     </r>
     <r>
       <rPr>
@@ -421,6 +386,204 @@
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>e</t>
+    </r>
+  </si>
+  <si>
+    <t>France (franc)</t>
+  </si>
+  <si>
+    <t>Valise (valis)</t>
+  </si>
+  <si>
+    <t>Blouson (blouson)</t>
+  </si>
+  <si>
+    <t>Aussi (ossi)</t>
+  </si>
+  <si>
+    <t>Bonnet (bonê)</t>
+  </si>
+  <si>
+    <t>Parapluie (parrraplui)</t>
+  </si>
+  <si>
+    <t>Mots (mó)</t>
+  </si>
+  <si>
+    <t>Anotação</t>
+  </si>
+  <si>
+    <t>Sofa</t>
+  </si>
+  <si>
+    <t>Carro</t>
+  </si>
+  <si>
+    <t>Voiture (vuaturrr)</t>
+  </si>
+  <si>
+    <t>Masculin (masculan) / Féminin (feminan)</t>
+  </si>
+  <si>
+    <t>La</t>
+  </si>
+  <si>
+    <t>Le</t>
+  </si>
+  <si>
+    <t>Casa</t>
+  </si>
+  <si>
+    <t>Maison (meson)</t>
+  </si>
+  <si>
+    <t>Table (tabla)</t>
+  </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>L'hotel</t>
+  </si>
+  <si>
+    <t>Le → L'</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Computador</t>
+  </si>
+  <si>
+    <t>Cadeira</t>
+  </si>
+  <si>
+    <t>Livre</t>
+  </si>
+  <si>
+    <t>Livro</t>
+  </si>
+  <si>
+    <t>Cama</t>
+  </si>
+  <si>
+    <t>Chaise (xeze)</t>
+  </si>
+  <si>
+    <t>L'ordinateur (ordinator)</t>
+  </si>
+  <si>
+    <t>Lit (li)</t>
+  </si>
+  <si>
+    <t>Armoire</t>
+  </si>
+  <si>
+    <t>Movel</t>
+  </si>
+  <si>
+    <t>La → L'</t>
+  </si>
+  <si>
+    <t>L'Armoire (armoiar)</t>
+  </si>
+  <si>
+    <t>L'horloge (orloge)</t>
+  </si>
+  <si>
+    <t>Relógio</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Robe (rob)</t>
+  </si>
+  <si>
+    <t>Chaussette (chusset)</t>
+  </si>
+  <si>
+    <t>Pantalon (pantalon)</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>Tiroir (tirrua)</t>
+  </si>
+  <si>
+    <t>Gaveta</t>
+  </si>
+  <si>
+    <t>Caixa</t>
+  </si>
+  <si>
+    <t>Fleur (flô)</t>
+  </si>
+  <si>
+    <t>Flor</t>
+  </si>
+  <si>
+    <t>Salon</t>
+  </si>
+  <si>
+    <t>Emplacement</t>
+  </si>
+  <si>
+    <t>Sala de estar</t>
+  </si>
+  <si>
+    <t>Chambre</t>
+  </si>
+  <si>
+    <t>Quarto</t>
+  </si>
+  <si>
+    <t>Boîte (buata)</t>
+  </si>
+  <si>
+    <t>Em/Na</t>
+  </si>
+  <si>
+    <t>"Ou"</t>
+  </si>
+  <si>
+    <t>som de U</t>
+  </si>
+  <si>
+    <r>
+      <t>Mett</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (met)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bonj</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ou</t>
     </r>
     <r>
       <rPr>
@@ -430,75 +593,295 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, paraplui</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>e</t>
-    </r>
-  </si>
-  <si>
-    <t>France (franc)</t>
-  </si>
-  <si>
-    <t>Valise (valis)</t>
-  </si>
-  <si>
-    <t>Blouson (blouson)</t>
-  </si>
-  <si>
-    <t>Aussi (ossi)</t>
-  </si>
-  <si>
-    <t>Bonnet (bonê)</t>
-  </si>
-  <si>
-    <t>Parapluie (parrraplui)</t>
-  </si>
-  <si>
-    <t>Mots (mó)</t>
-  </si>
-  <si>
-    <t>Callor</t>
-  </si>
-  <si>
-    <t>Anotação</t>
-  </si>
-  <si>
-    <t>Clima ruim</t>
-  </si>
-  <si>
-    <t>Cimat</t>
-  </si>
-  <si>
-    <t>Clilma bom</t>
-  </si>
-  <si>
-    <t>Il fait mauvais (move)</t>
-  </si>
-  <si>
-    <t>Il fait Beau (bo)</t>
-  </si>
-  <si>
-    <t>Il fait (fe) Chaud (xo)</t>
-  </si>
-  <si>
-    <r>
-      <t>Il fait Froi</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>d</t>
+      <t>r (bonju), v</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ou</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>s (vu), c'est t</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ou</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>t (ce tu)</t>
+    </r>
+  </si>
+  <si>
+    <t>"Ai"</t>
+  </si>
+  <si>
+    <t>som de É</t>
+  </si>
+  <si>
+    <t>"Eu"</t>
+  </si>
+  <si>
+    <t>som de E francês</t>
+  </si>
+  <si>
+    <r>
+      <t>ordinat</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>r (ordinateeer)</t>
+    </r>
+  </si>
+  <si>
+    <t>"Oi"</t>
+  </si>
+  <si>
+    <t>som de Ua</t>
+  </si>
+  <si>
+    <t>"Oy"</t>
+  </si>
+  <si>
+    <t>som de "uai"</t>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>oy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>age (vuaige)</t>
+    </r>
+  </si>
+  <si>
+    <t>"É"</t>
+  </si>
+  <si>
+    <t>som de E</t>
+  </si>
+  <si>
+    <t>écharpe (echarp)</t>
+  </si>
+  <si>
+    <t>"È"</t>
+  </si>
+  <si>
+    <t>très bien (trrré biã)</t>
+  </si>
+  <si>
+    <t>som de É (boca sorriso)</t>
+  </si>
+  <si>
+    <r>
+      <t>sil vous plaît (si vu plé), J'</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (jé)</t>
+    </r>
+  </si>
+  <si>
+    <t>Avoir</t>
+  </si>
+  <si>
+    <t>Ter</t>
+  </si>
+  <si>
+    <t>Les Articles</t>
+  </si>
+  <si>
+    <t>Une</t>
+  </si>
+  <si>
+    <t>Un</t>
+  </si>
+  <si>
+    <t>um</t>
+  </si>
+  <si>
+    <t>uma</t>
+  </si>
+  <si>
+    <t>uns/umas</t>
+  </si>
+  <si>
+    <t>Des examples</t>
+  </si>
+  <si>
+    <t>Un bagage</t>
+  </si>
+  <si>
+    <t>Une valise</t>
+  </si>
+  <si>
+    <t>Des bagage</t>
+  </si>
+  <si>
+    <t>Des*</t>
+  </si>
+  <si>
+    <t>Porte</t>
+  </si>
+  <si>
+    <t>Porta</t>
+  </si>
+  <si>
+    <t>stylo (estilo)</t>
+  </si>
+  <si>
+    <t>Caneta</t>
+  </si>
+  <si>
+    <t>Classe (classa)</t>
+  </si>
+  <si>
+    <t>Classe</t>
+  </si>
+  <si>
+    <t>Fenêtre (fenetrrre)</t>
+  </si>
+  <si>
+    <t>Janela</t>
+  </si>
+  <si>
+    <t>Couloir (culuarrr)</t>
+  </si>
+  <si>
+    <t>Corredor</t>
+  </si>
+  <si>
+    <t>Jouet</t>
+  </si>
+  <si>
+    <t>Brinquedo</t>
+  </si>
+  <si>
+    <t>Boneca</t>
+  </si>
+  <si>
+    <t>Poupée (pupe)</t>
+  </si>
+  <si>
+    <t>Balle (bala)</t>
+  </si>
+  <si>
+    <t>Bola</t>
+  </si>
+  <si>
+    <t>"On"</t>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>, B</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>soir</t>
+    </r>
+  </si>
+  <si>
+    <t>"au"</t>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>oi</t>
     </r>
     <r>
       <rPr>
@@ -508,116 +891,232 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (frrrua)</t>
-    </r>
-  </si>
-  <si>
-    <t>Geando</t>
-  </si>
-  <si>
-    <t>Il pleut (plu)</t>
-  </si>
-  <si>
-    <t>Il gèle (gele)</t>
-  </si>
-  <si>
-    <t>Chovendo</t>
-  </si>
-  <si>
-    <t>Sofa</t>
-  </si>
-  <si>
-    <t>Carro</t>
-  </si>
-  <si>
-    <t>Voiture (vuaturrr)</t>
-  </si>
-  <si>
-    <t>Masculin (masculan) / Féminin (feminan)</t>
-  </si>
-  <si>
-    <t>La</t>
-  </si>
-  <si>
-    <t>Le</t>
-  </si>
-  <si>
-    <t>Casa</t>
-  </si>
-  <si>
-    <t>Maison (meson)</t>
-  </si>
-  <si>
-    <t>Table (tabla)</t>
-  </si>
-  <si>
-    <t>Mesa</t>
-  </si>
-  <si>
-    <t>L'hotel</t>
-  </si>
-  <si>
-    <t>Le → L'</t>
-  </si>
-  <si>
-    <t>Hotel</t>
-  </si>
-  <si>
-    <t>Computador</t>
-  </si>
-  <si>
-    <t>Cadeira</t>
-  </si>
-  <si>
-    <t>Livre</t>
-  </si>
-  <si>
-    <t>Livro</t>
-  </si>
-  <si>
-    <t>Cama</t>
-  </si>
-  <si>
-    <t>Chaise (xeze)</t>
-  </si>
-  <si>
-    <t>L'ordinateur (ordinator)</t>
-  </si>
-  <si>
-    <t>Lit (li)</t>
-  </si>
-  <si>
-    <t>Armoire</t>
-  </si>
-  <si>
-    <t>Movel</t>
-  </si>
-  <si>
-    <t>La → L'</t>
-  </si>
-  <si>
-    <t>L'Armoire (armoiar)</t>
-  </si>
-  <si>
-    <t>L'horloge (orloge)</t>
-  </si>
-  <si>
-    <t>Relógio</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Robe (rob)</t>
-  </si>
-  <si>
-    <t>Chaussette (chusset)</t>
-  </si>
-  <si>
-    <t>Pantalon (pantalon)</t>
-  </si>
-  <si>
-    <t>la</t>
+      <t>ci (vuaci), v</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>oi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>là (vuala), M</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>oi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (mua)</t>
+    </r>
+  </si>
+  <si>
+    <t>"Eau"</t>
+  </si>
+  <si>
+    <r>
+      <t>Au</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ssi (ossi)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eau</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>coup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (bocu)</t>
+    </r>
+  </si>
+  <si>
+    <t>"Un"</t>
+  </si>
+  <si>
+    <t>Som nasal "ã"</t>
+  </si>
+  <si>
+    <t>"Ien"</t>
+  </si>
+  <si>
+    <t>som nasal O</t>
+  </si>
+  <si>
+    <t>Som de O</t>
+  </si>
+  <si>
+    <t>Som de "Iã"</t>
+  </si>
+  <si>
+    <r>
+      <t>Brésil</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>en</t>
+    </r>
+  </si>
+  <si>
+    <t>"Ez"</t>
+  </si>
+  <si>
+    <t>Som de E</t>
+  </si>
+  <si>
+    <r>
+      <t>Parl</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ez</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (parle), av</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ez</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (ave)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, aim</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ez</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (éme)</t>
+    </r>
+  </si>
+  <si>
+    <t>"Er"</t>
+  </si>
+  <si>
+    <r>
+      <t>Voyag</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (vuaige)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -648,24 +1147,8 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -710,6 +1193,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -731,15 +1227,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -751,47 +1245,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <font>
         <strike val="0"/>
@@ -820,6 +1294,9 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -830,6 +1307,39 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -845,20 +1355,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2AE4C2E-97BE-4C04-ADD6-9F313EDB07B6}" name="Tabela1" displayName="Tabela1" ref="A3:C5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="15">
-  <autoFilter ref="A3:C5" xr:uid="{DE50B4A7-4C04-4061-BFC9-D21DCA7EB26B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2AE4C2E-97BE-4C04-ADD6-9F313EDB07B6}" name="Tabela1" displayName="Tabela1" ref="A3:C6" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A3:C6" xr:uid="{DE50B4A7-4C04-4061-BFC9-D21DCA7EB26B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{70AB697F-58B6-4C53-AA98-9E3B61B84DAE}" name="Les verbs" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{B48490D0-DB6A-4087-A2EC-9CDC3D4C332B}" name="Régulier / Irrégulier" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{AC2505BF-3DBC-49D8-9E26-5B826C64BF30}" name="Traduction" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{70AB697F-58B6-4C53-AA98-9E3B61B84DAE}" name="Les verbs" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{B48490D0-DB6A-4087-A2EC-9CDC3D4C332B}" name="Régulier / Irrégulier" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{AC2505BF-3DBC-49D8-9E26-5B826C64BF30}" name="Traduction" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DBB2061F-7403-403E-A623-5FC545869920}" name="Tabela3" displayName="Tabela3" ref="E3:F6" totalsRowShown="0" headerRowDxfId="1" dataDxfId="14">
-  <autoFilter ref="E3:F6" xr:uid="{AFF1B087-AA0E-4C13-993F-DD7C7D5AF386}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DBB2061F-7403-403E-A623-5FC545869920}" name="Tabela3" displayName="Tabela3" ref="E3:F7" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="E3:F7" xr:uid="{AFF1B087-AA0E-4C13-993F-DD7C7D5AF386}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{654F8279-A79E-446B-9A10-6EFC9353BADC}" name="Les préposition" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{68F141E5-BCFF-45F1-8C42-A0469E916D71}" name="Traduction" dataDxfId="12"/>
@@ -868,29 +1378,40 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{99F915A2-E5D6-49AD-82A9-AAF27B055FCE}" name="Tabela8" displayName="Tabela8" ref="I3:L33" totalsRowShown="0" headerRowDxfId="0" dataDxfId="11">
-  <autoFilter ref="I3:L33" xr:uid="{1198EAD1-C6E9-405F-80A9-6F50EAEE7965}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I4:L22">
-    <sortCondition ref="K3:K22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{99F915A2-E5D6-49AD-82A9-AAF27B055FCE}" name="Tabela8" displayName="Tabela8" ref="I3:L39" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="I3:L39" xr:uid="{1198EAD1-C6E9-405F-80A9-6F50EAEE7965}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I4:L15">
+    <sortCondition ref="K3:K15"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0ED3D45D-EFBC-489C-8054-BFE156327E84}" name="Masculin (masculan) / Féminin (feminan)" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{02B8EC9E-02D5-AD47-8F86-20C0ED0A3ECD}" name="Les mots" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{75B82DD3-2882-4A1E-966A-4C5299BE48AE}" name="Catégorie" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{7CA4CA1D-75C7-4FC6-8FA1-AB9CBFA06CF6}" name="Traduction" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{0ED3D45D-EFBC-489C-8054-BFE156327E84}" name="Masculin (masculan) / Féminin (feminan)" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{02B8EC9E-02D5-AD47-8F86-20C0ED0A3ECD}" name="Les mots" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{75B82DD3-2882-4A1E-966A-4C5299BE48AE}" name="Catégorie" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{7CA4CA1D-75C7-4FC6-8FA1-AB9CBFA06CF6}" name="Traduction" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{07992851-DC1D-4BA4-BBA3-4035EE6B60EC}" name="Tabela10" displayName="Tabela10" ref="A4:D6" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A4:D6" xr:uid="{0D98C976-8E55-4C10-B76F-EECF3484D2EF}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D461DD1A-ED0B-468B-B1D2-DC2C1D29FB6D}" name="Finissant"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6AB2DD40-976E-1747-A5A9-8D19B9A3FE7F}" name="Tabela33" displayName="Tabela33" ref="N3:P7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="N3:P7" xr:uid="{D980BC51-9B26-E64C-954D-676B14D83225}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9322980A-D24D-F048-9F37-A8720924B414}" name="Les préposition" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{E81B9320-EA96-1E40-AB96-AB6EE2D2E609}" name="Traduction" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{941887CE-85CB-814D-95E9-618FBCB3A72F}" name="Des examples" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{07992851-DC1D-4BA4-BBA3-4035EE6B60EC}" name="Tabela10" displayName="Tabela10" ref="A3:C19" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A3:C19" xr:uid="{0D98C976-8E55-4C10-B76F-EECF3484D2EF}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D461DD1A-ED0B-468B-B1D2-DC2C1D29FB6D}" name="Mots"/>
     <tableColumn id="3" xr3:uid="{495751AD-C353-2D4F-9340-9713846117C6}" name="Action"/>
     <tableColumn id="2" xr3:uid="{4ECA0F46-F006-42CF-A3E9-63653BE64D35}" name="Des exemples"/>
-    <tableColumn id="4" xr3:uid="{731565C1-1D76-1645-BD36-E19B1034C585}" name="Prononciation En portugais"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1193,16 +1714,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF14E2DA-1F61-4D3E-BB06-34F5F1D5F3A2}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J7" activeCellId="1" sqref="I23 J7"/>
+    <sheetView showGridLines="0" topLeftCell="B15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
@@ -1214,55 +1735,70 @@
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.83203125" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="6"/>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1"/>
-    </row>
-    <row r="3" spans="1:12" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="N1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="B4" s="5"/>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1272,28 +1808,37 @@
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>102</v>
+      <c r="I4" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>8</v>
@@ -1301,361 +1846,393 @@
       <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>102</v>
+      <c r="I5" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="5"/>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="7"/>
-      <c r="I7" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8" s="7"/>
+      <c r="B8" s="5"/>
       <c r="C8"/>
-      <c r="I8" s="13" t="s">
-        <v>102</v>
+      <c r="I8" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I9" s="13" t="s">
-        <v>102</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I9" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I10" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I11" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I13" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I17" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I18" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I19" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I20" s="2" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I21" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I22" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I23" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I24" s="2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="27" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I27" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>85</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I28" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I29" s="2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>89</v>
@@ -1663,146 +2240,368 @@
     </row>
     <row r="30" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I30" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I31" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>99</v>
+        <v>57</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I33" s="2" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>101</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8936E1-71F9-4C33-ABC6-3E0FD3DD2C34}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="3" spans="1:3" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">

--- a/Others/En France/Les mots.xlsx
+++ b/Others/En France/Les mots.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igorromero/NotesInGeneral/Others/En France/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42C1E07-24F4-A546-8469-F675871B685C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EF3CC4-79BB-1846-B40C-7B5069394619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16800" activeTab="1" xr2:uid="{FAB4D674-A391-401D-ACEA-E0147A97A104}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="387">
   <si>
     <t>Les Verbs</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Traduction</t>
-  </si>
-  <si>
-    <t>Les Préposition</t>
   </si>
   <si>
     <t>Les préposition</t>
@@ -193,9 +190,6 @@
     <t>Mots</t>
   </si>
   <si>
-    <t>Palavra</t>
-  </si>
-  <si>
     <r>
       <t>France, valis</t>
     </r>
@@ -300,9 +294,6 @@
     <t>Voiture (vuaturrr)</t>
   </si>
   <si>
-    <t>Masculin (masculan) / Féminin (feminan)</t>
-  </si>
-  <si>
     <t>La</t>
   </si>
   <si>
@@ -321,12 +312,6 @@
     <t>Mesa</t>
   </si>
   <si>
-    <t>L'hotel</t>
-  </si>
-  <si>
-    <t>Le → L'</t>
-  </si>
-  <si>
     <t>Hotel</t>
   </si>
   <si>
@@ -348,9 +333,6 @@
     <t>Chaise (xeze)</t>
   </si>
   <si>
-    <t>L'ordinateur (ordinator)</t>
-  </si>
-  <si>
     <t>Lit (li)</t>
   </si>
   <si>
@@ -360,21 +342,9 @@
     <t>Movel</t>
   </si>
   <si>
-    <t>La → L'</t>
-  </si>
-  <si>
-    <t>L'Armoire (armoiar)</t>
-  </si>
-  <si>
-    <t>L'horloge (orloge)</t>
-  </si>
-  <si>
     <t>Relógio</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Robe (rob)</t>
   </si>
   <si>
@@ -598,9 +568,6 @@
   </si>
   <si>
     <t>Corredor</t>
-  </si>
-  <si>
-    <t>Jouet</t>
   </si>
   <si>
     <t>Brinquedo</t>
@@ -1493,18 +1460,146 @@
   </si>
   <si>
     <r>
-      <t>All</t>
+      <t>Ador</t>
     </r>
     <r>
       <rPr>
         <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>er</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Parl</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>er</t>
+    </r>
+  </si>
+  <si>
+    <t>Avec</t>
+  </si>
+  <si>
+    <t>Com</t>
+  </si>
+  <si>
+    <t>Premier Groupe (terminam com ER)</t>
+  </si>
+  <si>
+    <t>Du</t>
+  </si>
+  <si>
+    <t>Do</t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Cuisiner</t>
+  </si>
+  <si>
+    <t>Cozinhar</t>
+  </si>
+  <si>
+    <t>À</t>
+  </si>
+  <si>
+    <t>Ao/Do</t>
+  </si>
+  <si>
+    <t>Regarder</t>
+  </si>
+  <si>
+    <t>Assistir/Olhar</t>
+  </si>
+  <si>
+    <t>Escutar</t>
+  </si>
+  <si>
+    <t>Déjà</t>
+  </si>
+  <si>
+    <t>Já</t>
+  </si>
+  <si>
+    <r>
+      <t>Alle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <t>Régulier (1º)</t>
+  </si>
+  <si>
+    <t>"Et"</t>
+  </si>
+  <si>
+    <r>
+      <t>Poll</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>et</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (pulle)</t>
+    </r>
+  </si>
+  <si>
+    <t>"An"</t>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>e</t>
+      <t>s (dõn), or</t>
     </r>
     <r>
       <rPr>
@@ -1513,12 +1608,25 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>r</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ador</t>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ge (orõnge)</t>
+    </r>
+  </si>
+  <si>
+    <t>"En"</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
     </r>
     <r>
       <rPr>
@@ -1527,12 +1635,17 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>er</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Parl</t>
+      <t>en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dant (Põndõn), compartim</t>
     </r>
     <r>
       <rPr>
@@ -1541,42 +1654,341 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>er</t>
-    </r>
-  </si>
-  <si>
-    <t>Avec</t>
-  </si>
-  <si>
-    <t>Com</t>
-  </si>
-  <si>
-    <t>Premier Groupe (terminam com ER)</t>
-  </si>
-  <si>
-    <t>Du</t>
-  </si>
-  <si>
-    <t>Do</t>
-  </si>
-  <si>
-    <t>Au</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Cuisiner</t>
-  </si>
-  <si>
-    <t>Cozinhar</t>
+      <t>en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t (compartimõn)</t>
+    </r>
+  </si>
+  <si>
+    <t>"Ain"</t>
+  </si>
+  <si>
+    <t>Som de on</t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (mãn)</t>
+    </r>
+  </si>
+  <si>
+    <t>"Ein"</t>
+  </si>
+  <si>
+    <t>Ceinture (çantur)</t>
+  </si>
+  <si>
+    <t>"In"</t>
+  </si>
+  <si>
+    <t>Voisin (vuasã)</t>
+  </si>
+  <si>
+    <t>Manger</t>
+  </si>
+  <si>
+    <t>Comer</t>
+  </si>
+  <si>
+    <t>Écouter</t>
+  </si>
+  <si>
+    <t>Vizinho</t>
+  </si>
+  <si>
+    <t>Côté</t>
+  </si>
+  <si>
+    <t>Ao Lado</t>
+  </si>
+  <si>
+    <t>Les</t>
+  </si>
+  <si>
+    <t>Palavras</t>
+  </si>
+  <si>
+    <t>Bebida</t>
+  </si>
+  <si>
+    <t>Alimentation</t>
+  </si>
+  <si>
+    <t>Peixe</t>
+  </si>
+  <si>
+    <t>Frango</t>
+  </si>
+  <si>
+    <t>Jouet (Jue)</t>
+  </si>
+  <si>
+    <t>Boisson (boasson)</t>
+  </si>
+  <si>
+    <t>Poulet (pule)</t>
+  </si>
+  <si>
+    <t>Poisson (poasson)</t>
+  </si>
+  <si>
+    <t>Jantar</t>
+  </si>
+  <si>
+    <t>Suco</t>
+  </si>
+  <si>
+    <t>Água</t>
+  </si>
+  <si>
+    <t>Pendant</t>
+  </si>
+  <si>
+    <t>Durante</t>
+  </si>
+  <si>
+    <t>Rester</t>
+  </si>
+  <si>
+    <t>Ficar</t>
+  </si>
+  <si>
+    <t>Décoller</t>
+  </si>
+  <si>
+    <t>Decolar</t>
+  </si>
+  <si>
+    <t>Mas</t>
+  </si>
+  <si>
+    <t>mais (mé)</t>
+  </si>
+  <si>
+    <t>Monter</t>
+  </si>
+  <si>
+    <t>Subir</t>
+  </si>
+  <si>
+    <t>Habiter</t>
+  </si>
+  <si>
+    <t>Morar</t>
+  </si>
+  <si>
+    <t>Mudo</t>
+  </si>
+  <si>
+    <t>Muet (mue)</t>
+  </si>
+  <si>
+    <t>Eau (o français)</t>
+  </si>
+  <si>
+    <t>Jus (ju)</t>
+  </si>
+  <si>
+    <t>Dîner</t>
+  </si>
+  <si>
+    <t>Siège</t>
+  </si>
+  <si>
+    <t>Gare (garr)</t>
+  </si>
+  <si>
+    <t>Estação (trem)</t>
+  </si>
+  <si>
+    <t>Nord</t>
+  </si>
+  <si>
+    <t>Norte</t>
+  </si>
+  <si>
+    <t>Distrito</t>
+  </si>
+  <si>
+    <t>Arrondissement (arrondissemã)</t>
+  </si>
+  <si>
+    <t>Masculin/ Féminin</t>
+  </si>
+  <si>
+    <t>L'</t>
+  </si>
+  <si>
+    <t>Près (prrré)</t>
+  </si>
+  <si>
+    <t>Perto</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Étranger</t>
+  </si>
+  <si>
+    <t>Estrangeiro</t>
+  </si>
+  <si>
+    <t>École</t>
+  </si>
+  <si>
+    <t>Escola</t>
+  </si>
+  <si>
+    <t>Ancient</t>
+  </si>
+  <si>
+    <t>Antigo</t>
+  </si>
+  <si>
+    <t>Nouveau</t>
+  </si>
+  <si>
+    <t>Novo</t>
+  </si>
+  <si>
+    <t>Détester</t>
+  </si>
+  <si>
+    <t>Odiar</t>
+  </si>
+  <si>
+    <t>Sempre</t>
+  </si>
+  <si>
+    <t>Toujours (tujur)</t>
+  </si>
+  <si>
+    <t>Heures (ors)</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Armoire (armoiar)</t>
+  </si>
+  <si>
+    <t>horloge (orloge)</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>ordinateur (ordinator)</t>
+  </si>
+  <si>
+    <t>Les Préposition/Nons</t>
+  </si>
+  <si>
+    <t>Bien sûr</t>
+  </si>
+  <si>
+    <t>Claro!</t>
+  </si>
+  <si>
+    <t>jusqu'à</t>
+  </si>
+  <si>
+    <t>Até</t>
+  </si>
+  <si>
+    <t>Andar/floor</t>
+  </si>
+  <si>
+    <t>Étage</t>
+  </si>
+  <si>
+    <t>petit-déjeuner</t>
+  </si>
+  <si>
+    <t>café da manhã</t>
+  </si>
+  <si>
+    <t>Commence</t>
+  </si>
+  <si>
+    <t>Começar</t>
+  </si>
+  <si>
+    <t>Salle</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>"ille"</t>
+  </si>
+  <si>
+    <r>
+      <t>Fam</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>ille</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, f</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>illes</t>
+    </r>
+  </si>
+  <si>
+    <t>Som de "ii"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1677,6 +2089,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Corps)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1698,7 +2116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1738,20 +2156,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1816,6 +2228,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1919,64 +2340,64 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2AE4C2E-97BE-4C04-ADD6-9F313EDB07B6}" name="Tabela1" displayName="Tabela1" ref="A3:C10" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A3:C10" xr:uid="{DE50B4A7-4C04-4061-BFC9-D21DCA7EB26B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C9">
-    <sortCondition ref="B3:B9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2AE4C2E-97BE-4C04-ADD6-9F313EDB07B6}" name="Tabela1" displayName="Tabela1" ref="A3:C19" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A3:C19" xr:uid="{DE50B4A7-4C04-4061-BFC9-D21DCA7EB26B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C16">
+    <sortCondition ref="A3:A16"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{70AB697F-58B6-4C53-AA98-9E3B61B84DAE}" name="Les verbs" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B48490D0-DB6A-4087-A2EC-9CDC3D4C332B}" name="Régulier / Irrégulier" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{AC2505BF-3DBC-49D8-9E26-5B826C64BF30}" name="Traduction" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{70AB697F-58B6-4C53-AA98-9E3B61B84DAE}" name="Les verbs" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{B48490D0-DB6A-4087-A2EC-9CDC3D4C332B}" name="Régulier / Irrégulier" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{AC2505BF-3DBC-49D8-9E26-5B826C64BF30}" name="Traduction" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DBB2061F-7403-403E-A623-5FC545869920}" name="Tabela3" displayName="Tabela3" ref="E3:F10" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="E3:F10" xr:uid="{AFF1B087-AA0E-4C13-993F-DD7C7D5AF386}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DBB2061F-7403-403E-A623-5FC545869920}" name="Tabela3" displayName="Tabela3" ref="E3:F17" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="E3:F17" xr:uid="{AFF1B087-AA0E-4C13-993F-DD7C7D5AF386}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{654F8279-A79E-446B-9A10-6EFC9353BADC}" name="Les préposition" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{68F141E5-BCFF-45F1-8C42-A0469E916D71}" name="Traduction" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{654F8279-A79E-446B-9A10-6EFC9353BADC}" name="Les préposition" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{68F141E5-BCFF-45F1-8C42-A0469E916D71}" name="Traduction" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{99F915A2-E5D6-49AD-82A9-AAF27B055FCE}" name="Tabela8" displayName="Tabela8" ref="H3:K40" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="H3:K40" xr:uid="{1198EAD1-C6E9-405F-80A9-6F50EAEE7965}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:K15">
-    <sortCondition ref="J3:J15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{99F915A2-E5D6-49AD-82A9-AAF27B055FCE}" name="Tabela8" displayName="Tabela8" ref="H3:K61" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="H3:K61" xr:uid="{1198EAD1-C6E9-405F-80A9-6F50EAEE7965}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:K58">
+    <sortCondition ref="I3:I58"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0ED3D45D-EFBC-489C-8054-BFE156327E84}" name="Masculin (masculan) / Féminin (feminan)" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{02B8EC9E-02D5-AD47-8F86-20C0ED0A3ECD}" name="Les mots" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{75B82DD3-2882-4A1E-966A-4C5299BE48AE}" name="Catégorie" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{7CA4CA1D-75C7-4FC6-8FA1-AB9CBFA06CF6}" name="Traduction" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{0ED3D45D-EFBC-489C-8054-BFE156327E84}" name="Masculin/ Féminin" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{02B8EC9E-02D5-AD47-8F86-20C0ED0A3ECD}" name="Les mots" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{75B82DD3-2882-4A1E-966A-4C5299BE48AE}" name="Catégorie" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{7CA4CA1D-75C7-4FC6-8FA1-AB9CBFA06CF6}" name="Traduction" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6AB2DD40-976E-1747-A5A9-8D19B9A3FE7F}" name="Tabela33" displayName="Tabela33" ref="M3:O6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6AB2DD40-976E-1747-A5A9-8D19B9A3FE7F}" name="Tabela33" displayName="Tabela33" ref="M3:O6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="M3:O6" xr:uid="{D980BC51-9B26-E64C-954D-676B14D83225}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9322980A-D24D-F048-9F37-A8720924B414}" name="Les préposition" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{E81B9320-EA96-1E40-AB96-AB6EE2D2E609}" name="Traduction" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{941887CE-85CB-814D-95E9-618FBCB3A72F}" name="Des examples" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{9322980A-D24D-F048-9F37-A8720924B414}" name="Les préposition" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{E81B9320-EA96-1E40-AB96-AB6EE2D2E609}" name="Traduction" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{941887CE-85CB-814D-95E9-618FBCB3A72F}" name="Des examples" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{07992851-DC1D-4BA4-BBA3-4035EE6B60EC}" name="Tabela10" displayName="Tabela10" ref="A2:C19" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A2:C19" xr:uid="{0D98C976-8E55-4C10-B76F-EECF3484D2EF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C18">
-    <sortCondition ref="A2:A18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{07992851-DC1D-4BA4-BBA3-4035EE6B60EC}" name="Tabela10" displayName="Tabela10" ref="A2:C26" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:C26" xr:uid="{0D98C976-8E55-4C10-B76F-EECF3484D2EF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C24">
+    <sortCondition ref="B2:B24"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D461DD1A-ED0B-468B-B1D2-DC2C1D29FB6D}" name="Mots"/>
@@ -1988,7 +2409,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2287,8 +2708,8 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="139" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2300,414 +2721,414 @@
   <sheetData>
     <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2720,10 +3141,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF14E2DA-1F61-4D3E-BB06-34F5F1D5F3A2}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2735,8 +3156,8 @@
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2.83203125" customWidth="1"/>
@@ -2751,19 +3172,19 @@
       </c>
       <c r="B1" s="6"/>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>371</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -2771,687 +3192,1104 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>54</v>
+        <v>348</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>291</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>269</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>78</v>
+      <c r="H4" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>50</v>
+        <v>358</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>282</v>
+        <v>102</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>276</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>18</v>
+        <v>314</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="K13" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="H15" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="H16" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>51</v>
+        <v>309</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="8:11" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="H17" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="I18" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H20" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H22" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="I22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H26" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H27" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H28" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H20" s="2" t="s">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H33" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H34" s="2" t="s">
-        <v>55</v>
+      <c r="H34" s="9" t="s">
+        <v>311</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>130</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H35" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>131</v>
+        <v>337</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>132</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H36" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>133</v>
+        <v>344</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>134</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H37" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>135</v>
+        <v>359</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>136</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H38" s="2" t="s">
-        <v>55</v>
+        <v>349</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>138</v>
+        <v>370</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H39" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H40" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>277</v>
+        <v>46</v>
       </c>
       <c r="J40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H45" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="46" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H47" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="51" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H54" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H56" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="57" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H57" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K40" s="2" t="s">
-        <v>278</v>
+    </row>
+    <row r="58" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="60" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="61" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H61" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -3468,10 +4306,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8936E1-71F9-4C33-ABC6-3E0FD3DD2C34}">
-  <dimension ref="A2:C19"/>
+  <dimension ref="A2:C26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3483,68 +4321,68 @@
   <sheetData>
     <row r="2" spans="1:3" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>146</v>
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3552,32 +4390,32 @@
         <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3585,98 +4423,175 @@
         <v>98</v>
       </c>
       <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
         <v>99</v>
-      </c>
-      <c r="C11" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>246</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" t="s">
         <v>141</v>
       </c>
-      <c r="B15" t="s">
-        <v>151</v>
-      </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>294</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>296</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>299</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C19" t="s">
-        <v>248</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>298</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>303</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>384</v>
+      </c>
+      <c r="B26" t="s">
+        <v>386</v>
+      </c>
+      <c r="C26" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/Others/En France/Les mots.xlsx
+++ b/Others/En France/Les mots.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igorromero/NotesInGeneral/Others/En France/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EF3CC4-79BB-1846-B40C-7B5069394619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A22844-2FC8-8B4B-9873-4868E3435D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16800" activeTab="1" xr2:uid="{FAB4D674-A391-401D-ACEA-E0147A97A104}"/>
   </bookViews>
@@ -34,8 +34,84 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{564AEBE3-897B-A346-A2B2-2013FCAC4021}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>J'ai, tu as, il a, nous avons, vous avez, ils ont</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{CFD4B237-9742-8346-8F0D-E602D74BDBA0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Je lis, il lit, nous lisons, vous lisez, ils lisent</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="390">
   <si>
     <t>Les Verbs</t>
   </si>
@@ -169,9 +245,6 @@
     </r>
   </si>
   <si>
-    <t>Mettre (Je mets)</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
@@ -501,9 +574,6 @@
     </r>
   </si>
   <si>
-    <t>Avoir</t>
-  </si>
-  <si>
     <t>Ter</t>
   </si>
   <si>
@@ -1427,9 +1497,6 @@
     <t>Vu parla angle?</t>
   </si>
   <si>
-    <t>Régulier</t>
-  </si>
-  <si>
     <t>Trousse</t>
   </si>
   <si>
@@ -1446,7 +1513,7 @@
   </si>
   <si>
     <r>
-      <t>Aim</t>
+      <t>Parl</t>
     </r>
     <r>
       <rPr>
@@ -1459,34 +1526,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Ador</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>er</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Parl</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>er</t>
-    </r>
-  </si>
-  <si>
     <t>Avec</t>
   </si>
   <si>
@@ -1508,9 +1547,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Cuisiner</t>
-  </si>
-  <si>
     <t>Cozinhar</t>
   </si>
   <si>
@@ -1533,19 +1569,6 @@
   </si>
   <si>
     <t>Já</t>
-  </si>
-  <si>
-    <r>
-      <t>Alle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>r</t>
-    </r>
   </si>
   <si>
     <t>Régulier (1º)</t>
@@ -1708,15 +1731,9 @@
     <t>Voisin (vuasã)</t>
   </si>
   <si>
-    <t>Manger</t>
-  </si>
-  <si>
     <t>Comer</t>
   </si>
   <si>
-    <t>Écouter</t>
-  </si>
-  <si>
     <t>Vizinho</t>
   </si>
   <si>
@@ -1777,9 +1794,6 @@
     <t>Ficar</t>
   </si>
   <si>
-    <t>Décoller</t>
-  </si>
-  <si>
     <t>Decolar</t>
   </si>
   <si>
@@ -1789,9 +1803,6 @@
     <t>mais (mé)</t>
   </si>
   <si>
-    <t>Monter</t>
-  </si>
-  <si>
     <t>Subir</t>
   </si>
   <si>
@@ -1931,9 +1942,6 @@
   </si>
   <si>
     <t>café da manhã</t>
-  </si>
-  <si>
-    <t>Commence</t>
   </si>
   <si>
     <t>Começar</t>
@@ -1982,13 +1990,120 @@
   </si>
   <si>
     <t>Som de "ii"</t>
+  </si>
+  <si>
+    <r>
+      <t>Ador</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Adorre)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Aim</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Eme)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Alle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Alle)</t>
+    </r>
+  </si>
+  <si>
+    <t>Avoir (avua)</t>
+  </si>
+  <si>
+    <t>Cuisiner (cusine)</t>
+  </si>
+  <si>
+    <t>Décoller (Decole)</t>
+  </si>
+  <si>
+    <t>Écouter (Ecute)</t>
+  </si>
+  <si>
+    <t>Manger (mange)</t>
+  </si>
+  <si>
+    <t>Mettre (Méttre)</t>
+  </si>
+  <si>
+    <t>Monter (Monte)</t>
+  </si>
+  <si>
+    <t>Escrever</t>
+  </si>
+  <si>
+    <t>Écrire (ecrie)</t>
+  </si>
+  <si>
+    <t>Lire (lir)</t>
+  </si>
+  <si>
+    <t>Ler</t>
+  </si>
+  <si>
+    <t>Commence (comance)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2095,6 +2210,19 @@
       <color theme="1"/>
       <name val="Calibri (Corps)"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2152,12 +2280,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2340,10 +2470,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2AE4C2E-97BE-4C04-ADD6-9F313EDB07B6}" name="Tabela1" displayName="Tabela1" ref="A3:C19" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A3:C19" xr:uid="{DE50B4A7-4C04-4061-BFC9-D21DCA7EB26B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C16">
-    <sortCondition ref="A3:A16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2AE4C2E-97BE-4C04-ADD6-9F313EDB07B6}" name="Tabela1" displayName="Tabela1" ref="A3:C21" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A3:C21" xr:uid="{DE50B4A7-4C04-4061-BFC9-D21DCA7EB26B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C20">
+    <sortCondition ref="A3:A20"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{70AB697F-58B6-4C53-AA98-9E3B61B84DAE}" name="Les verbs" dataDxfId="18"/>
@@ -2409,7 +2539,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2721,414 +2851,414 @@
   <sheetData>
     <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>152</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>156</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>159</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>168</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>173</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>176</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>185</v>
-      </c>
       <c r="C14" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>188</v>
-      </c>
       <c r="C15" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>192</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>195</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>200</v>
-      </c>
       <c r="C19" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>204</v>
-      </c>
       <c r="C20" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>205</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>210</v>
-      </c>
       <c r="C22" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>213</v>
-      </c>
       <c r="C23" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>217</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>222</v>
-      </c>
       <c r="C25" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>223</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>226</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>240</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>243</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>247</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>250</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>255</v>
-      </c>
       <c r="C35" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>256</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>259</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3140,16 +3270,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF14E2DA-1F61-4D3E-BB06-34F5F1D5F3A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF14E2DA-1F61-4D3E-BB06-34F5F1D5F3A2}">
   <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
@@ -3172,26 +3302,27 @@
       </c>
       <c r="B1" s="6"/>
       <c r="E1" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>276</v>
-      </c>
+      <c r="A2" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:15" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -3204,7 +3335,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>9</v>
@@ -3222,18 +3353,18 @@
         <v>2</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>272</v>
+        <v>375</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
@@ -3242,36 +3373,36 @@
         <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>271</v>
+        <v>376</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
@@ -3280,33 +3411,33 @@
         <v>8</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="M5" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>290</v>
+      <c r="A6" s="16" t="s">
+        <v>377</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -3315,80 +3446,80 @@
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>378</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>281</v>
+        <v>389</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>282</v>
+        <v>369</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>17</v>
@@ -3399,83 +3530,83 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>307</v>
+        <v>380</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>17</v>
@@ -3486,83 +3617,83 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>381</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>284</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>281</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>291</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>333</v>
+        <v>385</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>17</v>
@@ -3573,199 +3704,217 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>285</v>
+        <v>382</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>291</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>327</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>361</v>
+        <v>268</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>362</v>
+        <v>267</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>380</v>
+        <v>279</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>381</v>
+        <v>280</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H20" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="I20" s="2" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>388</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>11</v>
@@ -3776,206 +3925,206 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H26" s="2" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H27" s="2" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H28" s="2" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H31" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="K31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H32" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H34" s="9" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H37" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H38" s="2" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>17</v>
@@ -3986,10 +4135,10 @@
     </row>
     <row r="40" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>14</v>
@@ -4000,77 +4149,77 @@
     </row>
     <row r="41" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H41" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H43" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H44" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H45" s="9" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H46" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>24</v>
@@ -4084,24 +4233,24 @@
     </row>
     <row r="47" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H47" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K47" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H48" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>17</v>
@@ -4112,77 +4261,77 @@
     </row>
     <row r="49" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H49" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I49" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="50" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H50" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H51" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H52" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H53" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K53" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="54" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H54" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>21</v>
@@ -4196,38 +4345,38 @@
     </row>
     <row r="55" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H55" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="56" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H56" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H57" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>14</v>
@@ -4238,68 +4387,72 @@
     </row>
     <row r="58" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H58" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H59" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="60" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H60" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="61" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H61" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="4">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4321,10 +4474,10 @@
   <sheetData>
     <row r="2" spans="1:3" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>31</v>
@@ -4332,266 +4485,266 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
         <v>92</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>93</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
         <v>95</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>96</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" t="s">
         <v>142</v>
-      </c>
-      <c r="B9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
         <v>98</v>
-      </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
         <v>100</v>
-      </c>
-      <c r="C12" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
-        <v>89</v>
-      </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" t="s">
         <v>134</v>
-      </c>
-      <c r="B15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B16" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C16" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B17" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C17" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
         <v>90</v>
       </c>
-      <c r="B20" t="s">
-        <v>91</v>
-      </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B26" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C26" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/Others/En France/Les mots.xlsx
+++ b/Others/En France/Les mots.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igorromero/NotesInGeneral/Others/En France/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A22844-2FC8-8B4B-9873-4868E3435D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBC925E-B8A8-D849-8703-167279EB1D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16800" activeTab="1" xr2:uid="{FAB4D674-A391-401D-ACEA-E0147A97A104}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16800" xr2:uid="{FAB4D674-A391-401D-ACEA-E0147A97A104}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dans Votre Sommeil" sheetId="3" r:id="rId1"/>
-    <sheet name="MOTS" sheetId="1" r:id="rId2"/>
-    <sheet name="PRONONCIATION" sheetId="2" r:id="rId3"/>
+    <sheet name="MOTS" sheetId="1" r:id="rId1"/>
+    <sheet name="Revision" sheetId="4" r:id="rId2"/>
+    <sheet name="Dans Votre Sommeil" sheetId="3" r:id="rId3"/>
+    <sheet name="PRONONCIATION" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,73 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{564AEBE3-897B-A346-A2B2-2013FCAC4021}">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{AAC81772-D73C-6644-B897-E41B4C44E2C5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Je vais (vé), tu vas (va), il va, nous allons, vous allez, ils vont</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{14FAE349-A4E3-864D-B6D1-C4DF199A6C5D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>J'attends, tu attends, il attend, nous attendons, vous attendez, ils attendent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{564AEBE3-897B-A346-A2B2-2013FCAC4021}">
       <text>
         <r>
           <rPr>
@@ -73,7 +140,214 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{CFD4B237-9742-8346-8F0D-E602D74BDBA0}">
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{5E9EFC2E-6ADE-F34C-8D94-94F9187D8EF5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Je Connais, tu connais, ils connaît, nous connaissons, vous </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>connaissez</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{1217AB3C-DB87-1A44-B765-54AFDEE25967}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Je coupe, Tu coupes, Il coupe, nous coupons, vous coupez, ils coupent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{6A43F792-D72F-A849-A129-067973A4134D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Je cours, tu cours, il court, nous courons, vous courez, ils courent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{DA8D357E-2230-9D4D-A870-C485681E7CD4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Je crois, tu crois, il croit, nous croyons, vous croyez, ils croient</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{5E3E9304-C531-F04E-834B-8C0B41F73EE3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Je dis, tu dis, il dit, nous disons, vous ditez, ils disent (dis)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{DA441660-B382-A247-A234-134FDC698081}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Je dors, tu dors, il dort, nous dormons (dormon), vous dormez, ils dorment</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{CFD4B237-9742-8346-8F0D-E602D74BDBA0}">
       <text>
         <r>
           <rPr>
@@ -106,12 +380,336 @@
         </r>
       </text>
     </comment>
+    <comment ref="A38" authorId="0" shapeId="0" xr:uid="{D2488B14-DA8F-024E-8B71-AB83ABC49878}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Je meurs (mer), tu meurs, il meurt, nous mourons, vous mourez, ils meurent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{91F0A95D-9B31-CA45-A96E-7AA860CAF6DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Je perds (per), tu perds, il perd, nous perdons, vous perdez, ils perdent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A48" authorId="0" shapeId="0" xr:uid="{9690CCA4-17DF-BD4D-BDC3-3A972FF7EBBF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>je sors (sor), tu sors, il soit, nous sortons, vous sortez, ils sortent (sorte)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A49" authorId="0" shapeId="0" xr:uid="{4D3996B6-4260-1340-A806-5D931E9C1A4D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Je suis, tu suis, il suit, nous suivons, vous suivez, ils suivent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A53" authorId="0" shapeId="0" xr:uid="{045F5A05-5D0B-424B-81B6-296B32BE1038}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Je Vois (vua), Tu vois, il voit (vua), nous voyons (vuaion), vous voyez (vuaie), ils voient (vua)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A54" authorId="0" shapeId="0" xr:uid="{4E5FB118-68C2-6F41-BE9E-E7AE324C844B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Je veux (vã), tu veux, il veut, nous voulons (vulon), vous voulez, ils veulent (vãl)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{3D123858-B7FC-574F-BD6E-9976886C2FFA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">personne = ninguém
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">appeler = chamar
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{D53AF0E4-AF26-9D42-823E-CD7461761CA4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">temps = tempo
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">achéter = comprar
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>choses = coisas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{BCBF0C08-F16C-3D4C-9EA2-D117AC76503F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>tout = todos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{4E7E615A-2224-8B47-8270-886FFAAE5A2A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>sua mãe te chama 3 vezes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{902B9F8E-7704-FF42-B4F9-BFF839457339}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ele veste a mesma camisa por 4 dias</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{49D4C44A-C46A-F440-B1F8-9482B6137B4A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>nos vestimos nossos uniformes durante o jogo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{F7490031-3F9B-A54D-AA20-1D5C724793FA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Você está vestindo sua calça?
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{A253C7D7-608B-1345-85BF-BD35C1A2B37A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>você sai da escola todos os dias a essa hora?</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="550">
   <si>
     <t>Les Verbs</t>
   </si>
@@ -1544,9 +2142,6 @@
     <t>Au</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Cozinhar</t>
   </si>
   <si>
@@ -1785,9 +2380,6 @@
     <t>Pendant</t>
   </si>
   <si>
-    <t>Durante</t>
-  </si>
-  <si>
     <t>Rester</t>
   </si>
   <si>
@@ -2097,13 +2689,956 @@
   </si>
   <si>
     <t>Commence (comance)</t>
+  </si>
+  <si>
+    <t>Connaître (conaitrre)</t>
+  </si>
+  <si>
+    <t>Conhecer</t>
+  </si>
+  <si>
+    <t>Attendre (atandre)</t>
+  </si>
+  <si>
+    <t>Régulier (3º)</t>
+  </si>
+  <si>
+    <t>Comprar</t>
+  </si>
+  <si>
+    <t>Esperar</t>
+  </si>
+  <si>
+    <t>Apporter (Apote)</t>
+  </si>
+  <si>
+    <t>Trazer</t>
+  </si>
+  <si>
+    <t>Voir (vuar)</t>
+  </si>
+  <si>
+    <t>Ver</t>
+  </si>
+  <si>
+    <t>Apprendre (Aprãn)</t>
+  </si>
+  <si>
+    <t>Aprender</t>
+  </si>
+  <si>
+    <t>Acheter (axet)</t>
+  </si>
+  <si>
+    <t>Cortar</t>
+  </si>
+  <si>
+    <t>Couper (cupe)</t>
+  </si>
+  <si>
+    <t>Correr</t>
+  </si>
+  <si>
+    <t>Courir (cur)</t>
+  </si>
+  <si>
+    <t>contient (contiã)</t>
+  </si>
+  <si>
+    <t>Contém</t>
+  </si>
+  <si>
+    <t>Acreditar</t>
+  </si>
+  <si>
+    <t>Ganhar</t>
+  </si>
+  <si>
+    <t>Entrar</t>
+  </si>
+  <si>
+    <t>Entrer (entrre)</t>
+  </si>
+  <si>
+    <t>Gagner (ganhe)</t>
+  </si>
+  <si>
+    <t>Dizer</t>
+  </si>
+  <si>
+    <t>Dire (dirrre)</t>
+  </si>
+  <si>
+    <t>Donner (done)</t>
+  </si>
+  <si>
+    <t>Dar</t>
+  </si>
+  <si>
+    <t>Marcher (marxe)</t>
+  </si>
+  <si>
+    <t>Mourir</t>
+  </si>
+  <si>
+    <t>Morrer</t>
+  </si>
+  <si>
+    <t>Cacher</t>
+  </si>
+  <si>
+    <t>Esconder</t>
+  </si>
+  <si>
+    <t>Montrer</t>
+  </si>
+  <si>
+    <t>Apresentar</t>
+  </si>
+  <si>
+    <t>Mériter (merrit)</t>
+  </si>
+  <si>
+    <t>Merecer</t>
+  </si>
+  <si>
+    <t>Laver (lav)</t>
+  </si>
+  <si>
+    <t>Lavar</t>
+  </si>
+  <si>
+    <t>Caminhar</t>
+  </si>
+  <si>
+    <t>Perder</t>
+  </si>
+  <si>
+    <t>Perdre (perdrrre)</t>
+  </si>
+  <si>
+    <t>Abrir</t>
+  </si>
+  <si>
+    <t>Ouvrer (uvre)</t>
+  </si>
+  <si>
+    <t>Posséder (possed)</t>
+  </si>
+  <si>
+    <t>Possui</t>
+  </si>
+  <si>
+    <t>Porter (port)</t>
+  </si>
+  <si>
+    <t>Proposer (propos)</t>
+  </si>
+  <si>
+    <t>Propor</t>
+  </si>
+  <si>
+    <t>Prendre</t>
+  </si>
+  <si>
+    <t>Manter/Segurar</t>
+  </si>
+  <si>
+    <t>Tenir (tu tiens bon) = aguenta firme</t>
+  </si>
+  <si>
+    <t>Tomar/Pegar</t>
+  </si>
+  <si>
+    <t>Trouver (truv)</t>
+  </si>
+  <si>
+    <t>Encontrar</t>
+  </si>
+  <si>
+    <t>Vendrer (vendre/vend)</t>
+  </si>
+  <si>
+    <t>Vender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vouloir (vuluar) </t>
+  </si>
+  <si>
+    <t>Querer</t>
+  </si>
+  <si>
+    <t>Suivrer (suivrrre)</t>
+  </si>
+  <si>
+    <t>Seguir</t>
+  </si>
+  <si>
+    <t>Dormir (dormon)</t>
+  </si>
+  <si>
+    <t>Dormir</t>
+  </si>
+  <si>
+    <t>Améliorer (amelhor)</t>
+  </si>
+  <si>
+    <t>Melhorar</t>
+  </si>
+  <si>
+    <t>Verb</t>
+  </si>
+  <si>
+    <t>La Phrase 1</t>
+  </si>
+  <si>
+    <t>La Phrase 2</t>
+  </si>
+  <si>
+    <t>La Phrase 3</t>
+  </si>
+  <si>
+    <t>La Phrase 4</t>
+  </si>
+  <si>
+    <t>La Phrase 5</t>
+  </si>
+  <si>
+    <t>Avoir</t>
+  </si>
+  <si>
+    <t>Sortir</t>
+  </si>
+  <si>
+    <t>Marcher</t>
+  </si>
+  <si>
+    <t>Étudier</t>
+  </si>
+  <si>
+    <t>Vestir</t>
+  </si>
+  <si>
+    <r>
+      <t>La chambre? Ella</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> une grande fênetre</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trois mille cinq cent quarante cinq (3545) robes à porter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>J'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> un téléphone et personne à appeler (apule)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Je m'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">appelle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Igor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nous </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appelons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour le dîner</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nous </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>avons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le temps (tã) d'achéter des choses (chosa)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avez</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-vous tout les brawlers?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tu t'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appelles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Stéphanie?</t>
+    </r>
+  </si>
+  <si>
+    <t>Porter (wear)</t>
+  </si>
+  <si>
+    <t>Appeler (call)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Je </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>porte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ma favorite chemise</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Porquoi tu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>portes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sa vêtemets?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ta mère t'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appelle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trois fois (fua)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Il </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>porte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> la même chemise pendant quatre jeurs</t>
+    </r>
+  </si>
+  <si>
+    <t>Durante/Enquanto</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nous </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>portons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nos uniformes pendant le jeu (je)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vous </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appelez</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tiago?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vous </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>portez</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> votre pantalon?</t>
+    </r>
+  </si>
+  <si>
+    <t>Sair</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Je </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de l'école</t>
+    </r>
+  </si>
+  <si>
+    <t>Cette</t>
+  </si>
+  <si>
+    <t>Essa/nesta</t>
+  </si>
+  <si>
+    <t>Ce/C'est</t>
+  </si>
+  <si>
+    <t>Esses/esse</t>
+  </si>
+  <si>
+    <t>Tout (sing) /tous (plural)</t>
+  </si>
+  <si>
+    <t>Todo/Todos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de l'école tous les jeurs à cette heure?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Il </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> son travail jusqu'à quatre heures</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nous </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sortons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en douce (de fininho)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vous </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sortez</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seul?</t>
+    </r>
+  </si>
+  <si>
+    <t>Ensuite</t>
+  </si>
+  <si>
+    <t>Quartir</t>
+  </si>
+  <si>
+    <t>Bairro</t>
+  </si>
+  <si>
+    <t>Então/Em seguida</t>
+  </si>
+  <si>
+    <t>Les adjectives</t>
+  </si>
+  <si>
+    <t>Importante</t>
+  </si>
+  <si>
+    <t>Elle est très important</t>
+  </si>
+  <si>
+    <t>Sombre</t>
+  </si>
+  <si>
+    <t>Escuro</t>
+  </si>
+  <si>
+    <t>Les courleurs sont sombres</t>
+  </si>
+  <si>
+    <t>Important (ãnportan)</t>
+  </si>
+  <si>
+    <t>Faible (féble)</t>
+  </si>
+  <si>
+    <t>Fraco</t>
+  </si>
+  <si>
+    <t>Vous êtes faible</t>
+  </si>
+  <si>
+    <t>Sympa (sapa)</t>
+  </si>
+  <si>
+    <t>Elle est plus sympa que toi</t>
+  </si>
+  <si>
+    <t>Simpátca</t>
+  </si>
+  <si>
+    <t>Prêt (pré)</t>
+  </si>
+  <si>
+    <t>Pronto</t>
+  </si>
+  <si>
+    <t>Il est prêt pour le test</t>
+  </si>
+  <si>
+    <t>Sérieux (sérrio)</t>
+  </si>
+  <si>
+    <t>Sério</t>
+  </si>
+  <si>
+    <t>Elle est très serieuse</t>
+  </si>
+  <si>
+    <t>Nu</t>
+  </si>
+  <si>
+    <t>nú</t>
+  </si>
+  <si>
+    <t>Suis-je nu? Non, Je suis habillé</t>
+  </si>
+  <si>
+    <t>Seco</t>
+  </si>
+  <si>
+    <t>Ma robe est sèche</t>
+  </si>
+  <si>
+    <t>Gentille (jantille)</t>
+  </si>
+  <si>
+    <t>Gentil</t>
+  </si>
+  <si>
+    <t>vous êtes gentille avec elle?</t>
+  </si>
+  <si>
+    <t>Sèche (séx) / Sec</t>
+  </si>
+  <si>
+    <t>Tard (tar)</t>
+  </si>
+  <si>
+    <t>Tarde</t>
+  </si>
+  <si>
+    <t>Sensible (sansible)</t>
+  </si>
+  <si>
+    <t>Sensível</t>
+  </si>
+  <si>
+    <t>Je suis sensible au froid</t>
+  </si>
+  <si>
+    <t>Ao/No</t>
+  </si>
+  <si>
+    <t>Les Adjectives</t>
+  </si>
+  <si>
+    <t>Pure (p˜ur)</t>
+  </si>
+  <si>
+    <t>Puro</t>
+  </si>
+  <si>
+    <t>Elle va tard</t>
+  </si>
+  <si>
+    <t>Elle n'est pas pure qu'avant (como antes)</t>
+  </si>
+  <si>
+    <t>Bas (ba)</t>
+  </si>
+  <si>
+    <t>Baixo</t>
+  </si>
+  <si>
+    <t>Il est bas</t>
+  </si>
+  <si>
+    <t>Douce (duce)</t>
+  </si>
+  <si>
+    <t>Doce</t>
+  </si>
+  <si>
+    <t>La nuit est douce comme vous</t>
+  </si>
+  <si>
+    <t>Génial (janial)</t>
+  </si>
+  <si>
+    <t>Genial</t>
+  </si>
+  <si>
+    <t>ta idée est géniale</t>
+  </si>
+  <si>
+    <t>Macio</t>
+  </si>
+  <si>
+    <t>Cette robe est très douce</t>
+  </si>
+  <si>
+    <t>Doux (du) / Douce</t>
+  </si>
+  <si>
+    <t>Croir (crua)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2223,6 +3758,39 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2244,7 +3812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2283,17 +3851,135 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2308,6 +3994,105 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2369,81 +4154,6 @@
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2458,73 +4168,103 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DD81E592-6A16-924A-84C9-A65F99A1D7A2}" name="Table4" displayName="Table4" ref="A2:C38" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A2:C38" xr:uid="{DD81E592-6A16-924A-84C9-A65F99A1D7A2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2AE4C2E-97BE-4C04-ADD6-9F313EDB07B6}" name="Tabela1" displayName="Tabela1" ref="A3:C54" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A3:C54" xr:uid="{DE50B4A7-4C04-4061-BFC9-D21DCA7EB26B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C54">
+    <sortCondition ref="A3:A54"/>
+  </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{855A3E76-EA84-E647-8306-350D0C78ED63}" name="Portugais" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{FBE927BE-7C7A-E04F-8A16-DE65F5317FD3}" name="Français" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{9DE464DD-4F57-F84F-9FC2-DA5D2783E332}" name="Accent" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{70AB697F-58B6-4C53-AA98-9E3B61B84DAE}" name="Les verbs" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{B48490D0-DB6A-4087-A2EC-9CDC3D4C332B}" name="Régulier / Irrégulier" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{AC2505BF-3DBC-49D8-9E26-5B826C64BF30}" name="Traduction" dataDxfId="34"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2AE4C2E-97BE-4C04-ADD6-9F313EDB07B6}" name="Tabela1" displayName="Tabela1" ref="A3:C21" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A3:C21" xr:uid="{DE50B4A7-4C04-4061-BFC9-D21DCA7EB26B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C20">
-    <sortCondition ref="A3:A20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DBB2061F-7403-403E-A623-5FC545869920}" name="Tabela3" displayName="Tabela3" ref="E3:F22" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="E3:F22" xr:uid="{AFF1B087-AA0E-4C13-993F-DD7C7D5AF386}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E4:F22">
+    <sortCondition ref="E3:E22"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{70AB697F-58B6-4C53-AA98-9E3B61B84DAE}" name="Les verbs" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{B48490D0-DB6A-4087-A2EC-9CDC3D4C332B}" name="Régulier / Irrégulier" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{AC2505BF-3DBC-49D8-9E26-5B826C64BF30}" name="Traduction" dataDxfId="16"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{654F8279-A79E-446B-9A10-6EFC9353BADC}" name="Les préposition" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{68F141E5-BCFF-45F1-8C42-A0469E916D71}" name="Traduction" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DBB2061F-7403-403E-A623-5FC545869920}" name="Tabela3" displayName="Tabela3" ref="E3:F17" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="E3:F17" xr:uid="{AFF1B087-AA0E-4C13-993F-DD7C7D5AF386}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{654F8279-A79E-446B-9A10-6EFC9353BADC}" name="Les préposition" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{68F141E5-BCFF-45F1-8C42-A0469E916D71}" name="Traduction" dataDxfId="12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{99F915A2-E5D6-49AD-82A9-AAF27B055FCE}" name="Tabela8" displayName="Tabela8" ref="H3:K62" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="H3:K62" xr:uid="{1198EAD1-C6E9-405F-80A9-6F50EAEE7965}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:K58">
+    <sortCondition ref="I3:I58"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0ED3D45D-EFBC-489C-8054-BFE156327E84}" name="Masculin/ Féminin" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{02B8EC9E-02D5-AD47-8F86-20C0ED0A3ECD}" name="Les mots" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{75B82DD3-2882-4A1E-966A-4C5299BE48AE}" name="Catégorie" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{7CA4CA1D-75C7-4FC6-8FA1-AB9CBFA06CF6}" name="Traduction" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6AB2DD40-976E-1747-A5A9-8D19B9A3FE7F}" name="Tabela33" displayName="Tabela33" ref="M3:O6" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="M3:O6" xr:uid="{D980BC51-9B26-E64C-954D-676B14D83225}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9322980A-D24D-F048-9F37-A8720924B414}" name="Les préposition" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{E81B9320-EA96-1E40-AB96-AB6EE2D2E609}" name="Traduction" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{941887CE-85CB-814D-95E9-618FBCB3A72F}" name="Des examples" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{99F915A2-E5D6-49AD-82A9-AAF27B055FCE}" name="Tabela8" displayName="Tabela8" ref="H3:K61" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="H3:K61" xr:uid="{1198EAD1-C6E9-405F-80A9-6F50EAEE7965}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:K58">
-    <sortCondition ref="I3:I58"/>
-  </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0ED3D45D-EFBC-489C-8054-BFE156327E84}" name="Masculin/ Féminin" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{02B8EC9E-02D5-AD47-8F86-20C0ED0A3ECD}" name="Les mots" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{75B82DD3-2882-4A1E-966A-4C5299BE48AE}" name="Catégorie" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{7CA4CA1D-75C7-4FC6-8FA1-AB9CBFA06CF6}" name="Traduction" dataDxfId="6"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5B61EFCA-A55F-894A-A391-DDBB57E4611F}" name="Table6" displayName="Table6" ref="Q3:S19" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="Q3:S19" xr:uid="{5B61EFCA-A55F-894A-A391-DDBB57E4611F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C920C215-8835-7549-A4FD-2B61F3D45986}" name="Les adjectives" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{C5C5C6CA-7B82-224B-BC2F-B3C860A9969B}" name="Traduction" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{D61A893D-7F3B-3C45-ACE4-65A8E3731B2B}" name="Des examples" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6AB2DD40-976E-1747-A5A9-8D19B9A3FE7F}" name="Tabela33" displayName="Tabela33" ref="M3:O6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="M3:O6" xr:uid="{D980BC51-9B26-E64C-954D-676B14D83225}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9322980A-D24D-F048-9F37-A8720924B414}" name="Les préposition" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{E81B9320-EA96-1E40-AB96-AB6EE2D2E609}" name="Traduction" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{941887CE-85CB-814D-95E9-618FBCB3A72F}" name="Des examples" dataDxfId="1"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7EB65188-7986-0046-8F43-CFC63FBF4374}" name="Table5" displayName="Table5" ref="A1:F8" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:F8" xr:uid="{7EB65188-7986-0046-8F43-CFC63FBF4374}"/>
+  <tableColumns count="6">
+    <tableColumn id="2" xr3:uid="{3407CCA0-5155-8844-8852-15C3ED9E9684}" name="Verb" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{45FD315C-A102-524B-9F03-C69F9DB2E4CC}" name="La Phrase 1" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{A1AA6A9D-5281-3744-914D-233B147D02F5}" name="La Phrase 2" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{0989272C-0958-6E4F-9E5E-B5ADFCBC8D9B}" name="La Phrase 3" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{FAAC954E-6550-4746-ADE1-13AA4B3F1828}" name="La Phrase 4" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{2AC092A7-0478-0843-9BC2-B4CC62F6339E}" name="La Phrase 5" dataDxfId="11"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{07992851-DC1D-4BA4-BBA3-4035EE6B60EC}" name="Tabela10" displayName="Tabela10" ref="A2:C26" totalsRowShown="0" headerRowDxfId="0">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DD81E592-6A16-924A-84C9-A65F99A1D7A2}" name="Table4" displayName="Table4" ref="A2:C38" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A2:C38" xr:uid="{DD81E592-6A16-924A-84C9-A65F99A1D7A2}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{855A3E76-EA84-E647-8306-350D0C78ED63}" name="Portugais" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{FBE927BE-7C7A-E04F-8A16-DE65F5317FD3}" name="Français" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{9DE464DD-4F57-F84F-9FC2-DA5D2783E332}" name="Accent" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{07992851-DC1D-4BA4-BBA3-4035EE6B60EC}" name="Tabela10" displayName="Tabela10" ref="A2:C26" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A2:C26" xr:uid="{0D98C976-8E55-4C10-B76F-EECF3484D2EF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C24">
     <sortCondition ref="B2:B24"/>
@@ -2834,6 +4574,1836 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF14E2DA-1F61-4D3E-BB06-34F5F1D5F3A2}">
+  <dimension ref="A1:S62"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="142" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.83203125" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" customWidth="1"/>
+    <col min="17" max="17" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="E1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:19" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="S11" s="17" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="S13" s="17" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="S14" s="17" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="S15" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="R16" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="S16" s="17" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="R17" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="S17" s="17" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="R18" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="S18" s="17" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q19" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="R19" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="S19" s="17" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H59" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H61" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H62" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="5">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFD2270-28B6-BC41-B636-306C63F82ADC}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEEC532-2779-9444-8612-3712050C9143}">
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -3269,1200 +6839,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF14E2DA-1F61-4D3E-BB06-34F5F1D5F3A2}">
-  <dimension ref="A1:O61"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.83203125" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="E1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="M1" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="17"/>
-    </row>
-    <row r="3" spans="1:15" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H26" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H27" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H28" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H34" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="35" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="36" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="37" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="38" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H38" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="42" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H43" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="44" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H44" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H45" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="46" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H46" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H47" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H48" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H49" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H50" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="51" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H51" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H52" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H53" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H54" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H55" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H56" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="57" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H57" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H58" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H59" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="60" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H60" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="61" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H61" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <tableParts count="4">
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8936E1-71F9-4C33-ABC6-3E0FD3DD2C34}">
   <dimension ref="A2:C26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4562,13 +6944,13 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
         <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4628,24 +7010,24 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C16" t="s">
         <v>287</v>
-      </c>
-      <c r="B16" t="s">
-        <v>292</v>
-      </c>
-      <c r="C16" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C17" t="s">
         <v>289</v>
-      </c>
-      <c r="B17" t="s">
-        <v>292</v>
-      </c>
-      <c r="C17" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -4694,24 +7076,24 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B22" t="s">
         <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B23" t="s">
         <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -4727,24 +7109,24 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B25" t="s">
         <v>136</v>
       </c>
       <c r="C25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>370</v>
+      </c>
+      <c r="B26" t="s">
         <v>372</v>
       </c>
-      <c r="B26" t="s">
-        <v>374</v>
-      </c>
       <c r="C26" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/Others/En France/Les mots.xlsx
+++ b/Others/En France/Les mots.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igorromero/NotesInGeneral/Others/En France/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBC925E-B8A8-D849-8703-167279EB1D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30F36BD-D776-C143-8C70-16FB5DCB5A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16800" xr2:uid="{FAB4D674-A391-401D-ACEA-E0147A97A104}"/>
   </bookViews>
@@ -38,10 +38,23 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={793E6812-43AE-FA47-8986-196AEA2A7A60}</author>
     <author>Microsoft Office User</author>
+    <author>tc={737B467A-E36C-9840-B343-783B7C95B3C5}</author>
+    <author>tc={348834F2-B91A-A141-BCBB-7617E87D2C05}</author>
+    <author>tc={BE02B841-2C84-2244-A105-5910AE22432A}</author>
+    <author>tc={71FFF0C1-209E-0140-BA8C-FB97ED07C474}</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{AAC81772-D73C-6644-B897-E41B4C44E2C5}">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{793E6812-43AE-FA47-8986-196AEA2A7A60}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Cafe au lait</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="1" shapeId="0" xr:uid="{AAC81772-D73C-6644-B897-E41B4C44E2C5}">
       <text>
         <r>
           <rPr>
@@ -74,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{14FAE349-A4E3-864D-B6D1-C4DF199A6C5D}">
+    <comment ref="A11" authorId="1" shapeId="0" xr:uid="{14FAE349-A4E3-864D-B6D1-C4DF199A6C5D}">
       <text>
         <r>
           <rPr>
@@ -107,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{564AEBE3-897B-A346-A2B2-2013FCAC4021}">
+    <comment ref="A12" authorId="1" shapeId="0" xr:uid="{564AEBE3-897B-A346-A2B2-2013FCAC4021}">
       <text>
         <r>
           <rPr>
@@ -140,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{5E9EFC2E-6ADE-F34C-8D94-94F9187D8EF5}">
+    <comment ref="A15" authorId="1" shapeId="0" xr:uid="{5E9EFC2E-6ADE-F34C-8D94-94F9187D8EF5}">
       <text>
         <r>
           <rPr>
@@ -182,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{1217AB3C-DB87-1A44-B765-54AFDEE25967}">
+    <comment ref="A16" authorId="1" shapeId="0" xr:uid="{1217AB3C-DB87-1A44-B765-54AFDEE25967}">
       <text>
         <r>
           <rPr>
@@ -215,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{6A43F792-D72F-A849-A129-067973A4134D}">
+    <comment ref="A17" authorId="1" shapeId="0" xr:uid="{6A43F792-D72F-A849-A129-067973A4134D}">
       <text>
         <r>
           <rPr>
@@ -248,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{DA8D357E-2230-9D4D-A870-C485681E7CD4}">
+    <comment ref="A18" authorId="1" shapeId="0" xr:uid="{DA8D357E-2230-9D4D-A870-C485681E7CD4}">
       <text>
         <r>
           <rPr>
@@ -281,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{5E3E9304-C531-F04E-834B-8C0B41F73EE3}">
+    <comment ref="A22" authorId="1" shapeId="0" xr:uid="{5E3E9304-C531-F04E-834B-8C0B41F73EE3}">
       <text>
         <r>
           <rPr>
@@ -314,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{DA441660-B382-A247-A234-134FDC698081}">
+    <comment ref="A24" authorId="1" shapeId="0" xr:uid="{DA441660-B382-A247-A234-134FDC698081}">
       <text>
         <r>
           <rPr>
@@ -347,7 +360,60 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{CFD4B237-9742-8346-8F0D-E602D74BDBA0}">
+    <comment ref="E25" authorId="2" shapeId="0" xr:uid="{737B467A-E36C-9840-B343-783B7C95B3C5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Il est sur la table
+(Ele esta em cima da mesa)</t>
+      </text>
+    </comment>
+    <comment ref="E26" authorId="3" shapeId="0" xr:uid="{348834F2-B91A-A141-BCBB-7617E87D2C05}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Avec ou sans eau?
+(Avec u sanzo?)</t>
+      </text>
+    </comment>
+    <comment ref="A28" authorId="1" shapeId="0" xr:uid="{D90F641B-E74F-7E4B-AC12-2E8DE981DACC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Je finis, tu finis, il finit, nous finissons, vous finissez, ils finissent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E28" authorId="4" shapeId="0" xr:uid="{BE02B841-2C84-2244-A105-5910AE22432A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Va chez Ella
+(Vá para casa dela)
+Reply:
+    Sempre usado com + nome/lugar
+Est-elle chez elle?
+(Ela está em casa?)</t>
+      </text>
+    </comment>
+    <comment ref="E29" authorId="5" shapeId="0" xr:uid="{71FFF0C1-209E-0140-BA8C-FB97ED07C474}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Je marche vers elle
+(Eu ando até ela)</t>
+      </text>
+    </comment>
+    <comment ref="A32" authorId="1" shapeId="0" xr:uid="{CFD4B237-9742-8346-8F0D-E602D74BDBA0}">
       <text>
         <r>
           <rPr>
@@ -380,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="0" shapeId="0" xr:uid="{D2488B14-DA8F-024E-8B71-AB83ABC49878}">
+    <comment ref="A39" authorId="1" shapeId="0" xr:uid="{D2488B14-DA8F-024E-8B71-AB83ABC49878}">
       <text>
         <r>
           <rPr>
@@ -413,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{91F0A95D-9B31-CA45-A96E-7AA860CAF6DC}">
+    <comment ref="A42" authorId="1" shapeId="0" xr:uid="{91F0A95D-9B31-CA45-A96E-7AA860CAF6DC}">
       <text>
         <r>
           <rPr>
@@ -446,7 +512,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A48" authorId="0" shapeId="0" xr:uid="{9690CCA4-17DF-BD4D-BDC3-3A972FF7EBBF}">
+    <comment ref="A45" authorId="1" shapeId="0" xr:uid="{229DE7CD-15FB-5F47-9764-F4D3702CE578}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Je peux, Tu peux, il peut, nous pouvons, vous pouvez, ils pouvent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A50" authorId="1" shapeId="0" xr:uid="{9690CCA4-17DF-BD4D-BDC3-3A972FF7EBBF}">
       <text>
         <r>
           <rPr>
@@ -459,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A49" authorId="0" shapeId="0" xr:uid="{4D3996B6-4260-1340-A806-5D931E9C1A4D}">
+    <comment ref="A51" authorId="1" shapeId="0" xr:uid="{4D3996B6-4260-1340-A806-5D931E9C1A4D}">
       <text>
         <r>
           <rPr>
@@ -492,7 +571,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A53" authorId="0" shapeId="0" xr:uid="{045F5A05-5D0B-424B-81B6-296B32BE1038}">
+    <comment ref="A52" authorId="1" shapeId="0" xr:uid="{0F266957-DDD4-8344-B312-DE2BC7E9E6BB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>je tiens, tu tiens bon, nous tions bon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A55" authorId="1" shapeId="0" xr:uid="{045F5A05-5D0B-424B-81B6-296B32BE1038}">
       <text>
         <r>
           <rPr>
@@ -525,7 +617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A54" authorId="0" shapeId="0" xr:uid="{4E5FB118-68C2-6F41-BE9E-E7AE324C844B}">
+    <comment ref="A56" authorId="1" shapeId="0" xr:uid="{4E5FB118-68C2-6F41-BE9E-E7AE324C844B}">
       <text>
         <r>
           <rPr>
@@ -709,7 +801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="649">
   <si>
     <t>Les Verbs</t>
   </si>
@@ -2793,9 +2885,6 @@
     <t>Montrer</t>
   </si>
   <si>
-    <t>Apresentar</t>
-  </si>
-  <si>
     <t>Mériter (merrit)</t>
   </si>
   <si>
@@ -2914,9 +3003,6 @@
   </si>
   <si>
     <t>Étudier</t>
-  </si>
-  <si>
-    <t>Vestir</t>
   </si>
   <si>
     <r>
@@ -3475,9 +3561,6 @@
     <t>Bairro</t>
   </si>
   <si>
-    <t>Então/Em seguida</t>
-  </si>
-  <si>
     <t>Les adjectives</t>
   </si>
   <si>
@@ -3577,9 +3660,6 @@
     <t>Je suis sensible au froid</t>
   </si>
   <si>
-    <t>Ao/No</t>
-  </si>
-  <si>
     <t>Les Adjectives</t>
   </si>
   <si>
@@ -3632,6 +3712,315 @@
   </si>
   <si>
     <t>Croir (crua)</t>
+  </si>
+  <si>
+    <t>Mostrar</t>
+  </si>
+  <si>
+    <t>oreiller (oreiie)</t>
+  </si>
+  <si>
+    <t>Travesseiro</t>
+  </si>
+  <si>
+    <t>Drap</t>
+  </si>
+  <si>
+    <t>Lençol</t>
+  </si>
+  <si>
+    <t>Couverture (cuvertur)</t>
+  </si>
+  <si>
+    <t>Cobertor</t>
+  </si>
+  <si>
+    <t>Salle de bain</t>
+  </si>
+  <si>
+    <t>Banheiro (chuveiro)</t>
+  </si>
+  <si>
+    <t>Toilet</t>
+  </si>
+  <si>
+    <t>Banheiro</t>
+  </si>
+  <si>
+    <t>Douche</t>
+  </si>
+  <si>
+    <t>Chuveiro</t>
+  </si>
+  <si>
+    <t>Finir</t>
+  </si>
+  <si>
+    <t>Terminar</t>
+  </si>
+  <si>
+    <t>Poder</t>
+  </si>
+  <si>
+    <t>Moyen</t>
+  </si>
+  <si>
+    <t>Médio</t>
+  </si>
+  <si>
+    <t>Un café moyan s'il vous plait</t>
+  </si>
+  <si>
+    <t>Rich/Riche</t>
+  </si>
+  <si>
+    <t>Rico</t>
+  </si>
+  <si>
+    <t>Elle est riche</t>
+  </si>
+  <si>
+    <t>Pobre</t>
+  </si>
+  <si>
+    <t>Il est pauvre</t>
+  </si>
+  <si>
+    <t>Malade</t>
+  </si>
+  <si>
+    <t>Doente</t>
+  </si>
+  <si>
+    <t>Pauvre (povre)</t>
+  </si>
+  <si>
+    <t>Le chat est malade</t>
+  </si>
+  <si>
+    <t>Chère</t>
+  </si>
+  <si>
+    <t>Cara/Querida</t>
+  </si>
+  <si>
+    <t>La viande est chère/ bonjor, ma chère</t>
+  </si>
+  <si>
+    <t>Famille</t>
+  </si>
+  <si>
+    <t>Fille</t>
+  </si>
+  <si>
+    <t>Filha/menina</t>
+  </si>
+  <si>
+    <t>Filles</t>
+  </si>
+  <si>
+    <t>Filhas/meninas</t>
+  </si>
+  <si>
+    <t>le</t>
+  </si>
+  <si>
+    <t>Filho</t>
+  </si>
+  <si>
+    <t>Filhos</t>
+  </si>
+  <si>
+    <t>Fils (fis)</t>
+  </si>
+  <si>
+    <t>Irmão</t>
+  </si>
+  <si>
+    <t>Frère (frrree)</t>
+  </si>
+  <si>
+    <t>soeur (sooer)</t>
+  </si>
+  <si>
+    <t>Irmã</t>
+  </si>
+  <si>
+    <t>Irmã + velha</t>
+  </si>
+  <si>
+    <t>Grande Soeur/Soeur aînée</t>
+  </si>
+  <si>
+    <t>Irmã + nova</t>
+  </si>
+  <si>
+    <t>Petite soeur/ Soeur Cadette</t>
+  </si>
+  <si>
+    <t>Oncle</t>
+  </si>
+  <si>
+    <t>Tante</t>
+  </si>
+  <si>
+    <t>Tio</t>
+  </si>
+  <si>
+    <t>Tia</t>
+  </si>
+  <si>
+    <t>Papa (-formal) /père</t>
+  </si>
+  <si>
+    <t>Pai</t>
+  </si>
+  <si>
+    <t>Mãe</t>
+  </si>
+  <si>
+    <t>Maman (mamon) /mère</t>
+  </si>
+  <si>
+    <t>Parents</t>
+  </si>
+  <si>
+    <t>Pais</t>
+  </si>
+  <si>
+    <t>Depuis que</t>
+  </si>
+  <si>
+    <t>Desde de</t>
+  </si>
+  <si>
+    <t>Enquanto</t>
+  </si>
+  <si>
+    <t>Em seguida</t>
+  </si>
+  <si>
+    <t>Allors que</t>
+  </si>
+  <si>
+    <t>Jupe (jupi)</t>
+  </si>
+  <si>
+    <t>Saia</t>
+  </si>
+  <si>
+    <t>Manteau (manto)</t>
+  </si>
+  <si>
+    <t>Sobretudo</t>
+  </si>
+  <si>
+    <t>Veste</t>
+  </si>
+  <si>
+    <t>Casaco</t>
+  </si>
+  <si>
+    <t>Costume</t>
+  </si>
+  <si>
+    <t>Terno</t>
+  </si>
+  <si>
+    <t>Chemise</t>
+  </si>
+  <si>
+    <t>Camisa social</t>
+  </si>
+  <si>
+    <t>Chapeau (chapo)</t>
+  </si>
+  <si>
+    <t>Chapeu</t>
+  </si>
+  <si>
+    <t>Casquette</t>
+  </si>
+  <si>
+    <t>Boné</t>
+  </si>
+  <si>
+    <t>Usar/Carregar</t>
+  </si>
+  <si>
+    <t>Basket</t>
+  </si>
+  <si>
+    <t>Tênis</t>
+  </si>
+  <si>
+    <t>Chaussures à talon</t>
+  </si>
+  <si>
+    <t>Salto</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Lunettes</t>
+  </si>
+  <si>
+    <t>Óculos</t>
+  </si>
+  <si>
+    <t>Lunettes de soleil (solei)</t>
+  </si>
+  <si>
+    <t>Óculos de sol</t>
+  </si>
+  <si>
+    <t>Pouvoir (puvuar)</t>
+  </si>
+  <si>
+    <t>Neta/neto</t>
+  </si>
+  <si>
+    <t>Petite-fille/Petit-fils</t>
+  </si>
+  <si>
+    <t>Grande-Mère/Grand-Père</t>
+  </si>
+  <si>
+    <t>Avó/avô</t>
+  </si>
+  <si>
+    <t>Sur</t>
+  </si>
+  <si>
+    <t>Sobre/Em cima/No</t>
+  </si>
+  <si>
+    <t>Sans</t>
+  </si>
+  <si>
+    <t>Sem</t>
+  </si>
+  <si>
+    <t>Aux (o)</t>
+  </si>
+  <si>
+    <t>Ao/com</t>
+  </si>
+  <si>
+    <t>Chez</t>
+  </si>
+  <si>
+    <t>Para a</t>
+  </si>
+  <si>
+    <t>Vers</t>
+  </si>
+  <si>
+    <t>Até x</t>
+  </si>
+  <si>
+    <t>Às/para as</t>
   </si>
 </sst>
 </file>
@@ -3812,7 +4201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3851,135 +4240,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="39">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -4093,6 +4370,115 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4140,6 +4526,9 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4167,11 +4556,17 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Igor Romero Vilela" id="{C6CEDF62-423D-0949-BD62-B6AB2031D579}" userId="S::igor.romero@ibm.com::94a733a1-8f9f-4133-8c4d-8d24290aab00" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2AE4C2E-97BE-4C04-ADD6-9F313EDB07B6}" name="Tabela1" displayName="Tabela1" ref="A3:C54" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="A3:C54" xr:uid="{DE50B4A7-4C04-4061-BFC9-D21DCA7EB26B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C54">
-    <sortCondition ref="A3:A54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2AE4C2E-97BE-4C04-ADD6-9F313EDB07B6}" name="Tabela1" displayName="Tabela1" ref="A3:C56" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A3:C56" xr:uid="{DE50B4A7-4C04-4061-BFC9-D21DCA7EB26B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C56">
+    <sortCondition ref="A3:A56"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{70AB697F-58B6-4C53-AA98-9E3B61B84DAE}" name="Les verbs" dataDxfId="36"/>
@@ -4183,8 +4578,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DBB2061F-7403-403E-A623-5FC545869920}" name="Tabela3" displayName="Tabela3" ref="E3:F22" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="E3:F22" xr:uid="{AFF1B087-AA0E-4C13-993F-DD7C7D5AF386}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DBB2061F-7403-403E-A623-5FC545869920}" name="Tabela3" displayName="Tabela3" ref="E3:F29" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="E3:F29" xr:uid="{AFF1B087-AA0E-4C13-993F-DD7C7D5AF386}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E4:F22">
     <sortCondition ref="E3:E22"/>
   </sortState>
@@ -4197,10 +4592,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{99F915A2-E5D6-49AD-82A9-AAF27B055FCE}" name="Tabela8" displayName="Tabela8" ref="H3:K62" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="H3:K62" xr:uid="{1198EAD1-C6E9-405F-80A9-6F50EAEE7965}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:K58">
-    <sortCondition ref="I3:I58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{99F915A2-E5D6-49AD-82A9-AAF27B055FCE}" name="Tabela8" displayName="Tabela8" ref="H3:K95" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="H3:K95" xr:uid="{1198EAD1-C6E9-405F-80A9-6F50EAEE7965}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:K85">
+    <sortCondition ref="J3:J85"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0ED3D45D-EFBC-489C-8054-BFE156327E84}" name="Masculin/ Féminin" dataDxfId="27"/>
@@ -4225,46 +4620,46 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5B61EFCA-A55F-894A-A391-DDBB57E4611F}" name="Table6" displayName="Table6" ref="Q3:S19" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="Q3:S19" xr:uid="{5B61EFCA-A55F-894A-A391-DDBB57E4611F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5B61EFCA-A55F-894A-A391-DDBB57E4611F}" name="Table6" displayName="Table6" ref="Q3:S24" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="Q3:S24" xr:uid="{5B61EFCA-A55F-894A-A391-DDBB57E4611F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C920C215-8835-7549-A4FD-2B61F3D45986}" name="Les adjectives" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{C5C5C6CA-7B82-224B-BC2F-B3C860A9969B}" name="Traduction" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{D61A893D-7F3B-3C45-ACE4-65A8E3731B2B}" name="Des examples" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C920C215-8835-7549-A4FD-2B61F3D45986}" name="Les adjectives" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{C5C5C6CA-7B82-224B-BC2F-B3C860A9969B}" name="Traduction" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{D61A893D-7F3B-3C45-ACE4-65A8E3731B2B}" name="Des examples" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7EB65188-7986-0046-8F43-CFC63FBF4374}" name="Table5" displayName="Table5" ref="A1:F8" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7EB65188-7986-0046-8F43-CFC63FBF4374}" name="Table5" displayName="Table5" ref="A1:F8" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:F8" xr:uid="{7EB65188-7986-0046-8F43-CFC63FBF4374}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{3407CCA0-5155-8844-8852-15C3ED9E9684}" name="Verb" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{45FD315C-A102-524B-9F03-C69F9DB2E4CC}" name="La Phrase 1" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{A1AA6A9D-5281-3744-914D-233B147D02F5}" name="La Phrase 2" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{0989272C-0958-6E4F-9E5E-B5ADFCBC8D9B}" name="La Phrase 3" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{FAAC954E-6550-4746-ADE1-13AA4B3F1828}" name="La Phrase 4" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{2AC092A7-0478-0843-9BC2-B4CC62F6339E}" name="La Phrase 5" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{3407CCA0-5155-8844-8852-15C3ED9E9684}" name="Verb" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{45FD315C-A102-524B-9F03-C69F9DB2E4CC}" name="La Phrase 1" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{A1AA6A9D-5281-3744-914D-233B147D02F5}" name="La Phrase 2" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{0989272C-0958-6E4F-9E5E-B5ADFCBC8D9B}" name="La Phrase 3" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{FAAC954E-6550-4746-ADE1-13AA4B3F1828}" name="La Phrase 4" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{2AC092A7-0478-0843-9BC2-B4CC62F6339E}" name="La Phrase 5" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DD81E592-6A16-924A-84C9-A65F99A1D7A2}" name="Table4" displayName="Table4" ref="A2:C38" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DD81E592-6A16-924A-84C9-A65F99A1D7A2}" name="Table4" displayName="Table4" ref="A2:C38" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A2:C38" xr:uid="{DD81E592-6A16-924A-84C9-A65F99A1D7A2}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{855A3E76-EA84-E647-8306-350D0C78ED63}" name="Portugais" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{FBE927BE-7C7A-E04F-8A16-DE65F5317FD3}" name="Français" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{9DE464DD-4F57-F84F-9FC2-DA5D2783E332}" name="Accent" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{855A3E76-EA84-E647-8306-350D0C78ED63}" name="Portugais" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{FBE927BE-7C7A-E04F-8A16-DE65F5317FD3}" name="Français" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{9DE464DD-4F57-F84F-9FC2-DA5D2783E332}" name="Accent" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{07992851-DC1D-4BA4-BBA3-4035EE6B60EC}" name="Tabela10" displayName="Tabela10" ref="A2:C26" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{07992851-DC1D-4BA4-BBA3-4035EE6B60EC}" name="Tabela10" displayName="Tabela10" ref="A2:C26" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A2:C26" xr:uid="{0D98C976-8E55-4C10-B76F-EECF3484D2EF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C24">
     <sortCondition ref="B2:B24"/>
@@ -4573,12 +4968,41 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E5" dT="2022-11-01T17:44:46.85" personId="{C6CEDF62-423D-0949-BD62-B6AB2031D579}" id="{793E6812-43AE-FA47-8986-196AEA2A7A60}">
+    <text>Cafe au lait</text>
+  </threadedComment>
+  <threadedComment ref="E25" dT="2022-11-01T17:45:52.49" personId="{C6CEDF62-423D-0949-BD62-B6AB2031D579}" id="{737B467A-E36C-9840-B343-783B7C95B3C5}">
+    <text>Il est sur la table
+(Ele esta em cima da mesa)</text>
+  </threadedComment>
+  <threadedComment ref="E26" dT="2022-11-01T17:45:29.98" personId="{C6CEDF62-423D-0949-BD62-B6AB2031D579}" id="{348834F2-B91A-A141-BCBB-7617E87D2C05}">
+    <text>Avec ou sans eau?
+(Avec u sanzo?)</text>
+  </threadedComment>
+  <threadedComment ref="E28" dT="2022-11-01T17:48:17.47" personId="{C6CEDF62-423D-0949-BD62-B6AB2031D579}" id="{BE02B841-2C84-2244-A105-5910AE22432A}">
+    <text>Va chez Ella
+(Vá para casa dela)</text>
+  </threadedComment>
+  <threadedComment ref="E28" dT="2022-11-01T17:48:51.79" personId="{C6CEDF62-423D-0949-BD62-B6AB2031D579}" id="{82FB3D7B-BF61-DB4B-883C-3109C3744F86}" parentId="{BE02B841-2C84-2244-A105-5910AE22432A}">
+    <text>Sempre usado com + nome/lugar
+Est-elle chez elle?
+(Ela está em casa?)</text>
+  </threadedComment>
+  <threadedComment ref="E29" dT="2022-11-01T17:51:02.58" personId="{C6CEDF62-423D-0949-BD62-B6AB2031D579}" id="{71FFF0C1-209E-0140-BA8C-FB97ED07C474}">
+    <text>Je marche vers elle
+(Eu ando até ela)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF14E2DA-1F61-4D3E-BB06-34F5F1D5F3A2}">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="142" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="142" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4599,7 +5023,7 @@
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.5" customWidth="1"/>
     <col min="16" max="16" width="2.6640625" customWidth="1"/>
-    <col min="17" max="17" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.33203125" customWidth="1"/>
     <col min="19" max="19" width="24.5" customWidth="1"/>
   </cols>
@@ -4620,14 +5044,14 @@
         <v>102</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:19" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -4666,13 +5090,13 @@
       <c r="O3" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="Q3" s="18" t="s">
-        <v>498</v>
-      </c>
-      <c r="R3" s="18" t="s">
+      <c r="Q3" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="R3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="17" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4683,7 +5107,7 @@
       <c r="B4" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="18" t="s">
         <v>392</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -4693,16 +5117,16 @@
         <v>277</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>336</v>
+        <v>52</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>38</v>
+        <v>304</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>104</v>
@@ -4713,14 +5137,14 @@
       <c r="O4" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Q4" s="19" t="s">
-        <v>504</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>500</v>
+      <c r="Q4" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4737,19 +5161,19 @@
         <v>274</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>531</v>
+        <v>643</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>354</v>
+        <v>52</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>65</v>
+        <v>304</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>66</v>
+        <v>311</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>103</v>
@@ -4760,14 +5184,14 @@
       <c r="O5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Q5" s="17" t="s">
-        <v>501</v>
-      </c>
-      <c r="R5" s="17" t="s">
-        <v>502</v>
-      </c>
-      <c r="S5" s="17" t="s">
-        <v>503</v>
+      <c r="Q5" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4787,16 +5211,16 @@
         <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>336</v>
+        <v>52</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>78</v>
+        <v>304</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>112</v>
@@ -4807,14 +5231,14 @@
       <c r="O6" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Q6" s="17" t="s">
-        <v>505</v>
-      </c>
-      <c r="R6" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>507</v>
+      <c r="Q6" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4834,36 +5258,36 @@
         <v>270</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>14</v>
+        <v>304</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>508</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>510</v>
-      </c>
-      <c r="S7" s="17" t="s">
-        <v>509</v>
+        <v>312</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>452</v>
+      <c r="C8" s="2" t="s">
+        <v>451</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>359</v>
@@ -4872,25 +5296,25 @@
         <v>360</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>17</v>
+        <v>304</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="R8" s="17" t="s">
-        <v>512</v>
-      </c>
-      <c r="S8" s="17" t="s">
-        <v>513</v>
+        <v>305</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -4900,35 +5324,35 @@
       <c r="B9" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="18" t="s">
         <v>395</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>304</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q9" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="R9" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>516</v>
+        <v>306</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -4938,35 +5362,35 @@
       <c r="B10" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="2" t="s">
         <v>399</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>82</v>
+        <v>365</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>14</v>
+        <v>304</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>517</v>
-      </c>
-      <c r="R10" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="S10" s="17" t="s">
-        <v>519</v>
+        <v>366</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -4976,7 +5400,7 @@
       <c r="B11" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>393</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -4986,25 +5410,25 @@
         <v>406</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>44</v>
+        <v>336</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>354</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q11" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="R11" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="S11" s="17" t="s">
-        <v>521</v>
+        <v>66</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -5035,14 +5459,14 @@
       <c r="K12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q12" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="S12" s="17" t="s">
-        <v>524</v>
+      <c r="Q12" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -5062,25 +5486,25 @@
         <v>282</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q13" s="17" t="s">
-        <v>526</v>
-      </c>
-      <c r="R13" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="S13" s="17" t="s">
-        <v>535</v>
+        <v>62</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="R13" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="S13" s="16" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -5103,22 +5527,22 @@
         <v>52</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="17" t="s">
-        <v>528</v>
-      </c>
-      <c r="R14" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="S14" s="17" t="s">
-        <v>530</v>
+        <v>48</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="R14" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -5128,7 +5552,7 @@
       <c r="B15" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>389</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -5141,22 +5565,22 @@
         <v>51</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>533</v>
-      </c>
-      <c r="R15" s="17" t="s">
-        <v>534</v>
-      </c>
-      <c r="S15" s="17" t="s">
-        <v>536</v>
+        <v>56</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="R15" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -5166,35 +5590,35 @@
       <c r="B16" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="2" t="s">
         <v>401</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>497</v>
+        <v>607</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>299</v>
+        <v>72</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q16" s="17" t="s">
-        <v>537</v>
-      </c>
-      <c r="R16" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="S16" s="17" t="s">
-        <v>539</v>
+        <v>73</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="R16" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="S16" s="16" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -5204,7 +5628,7 @@
       <c r="B17" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="2" t="s">
         <v>403</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -5214,35 +5638,35 @@
         <v>362</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>52</v>
+        <v>336</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>121</v>
+        <v>334</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>78</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="17" t="s">
-        <v>540</v>
-      </c>
-      <c r="R17" s="17" t="s">
-        <v>541</v>
-      </c>
-      <c r="S17" s="17" t="s">
-        <v>542</v>
+        <v>333</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="R17" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="S17" s="16" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="18" t="s">
         <v>407</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -5252,25 +5676,25 @@
         <v>318</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q18" s="17" t="s">
-        <v>543</v>
-      </c>
-      <c r="R18" s="17" t="s">
-        <v>544</v>
-      </c>
-      <c r="S18" s="17" t="s">
-        <v>545</v>
+        <v>81</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="R18" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="S18" s="16" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
@@ -5287,28 +5711,28 @@
         <v>314</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>325</v>
+        <v>121</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q19" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="R19" s="17" t="s">
-        <v>546</v>
-      </c>
-      <c r="S19" s="17" t="s">
-        <v>547</v>
+        <v>122</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="R19" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="S19" s="16" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
@@ -5339,6 +5763,15 @@
       <c r="K20" s="2" t="s">
         <v>343</v>
       </c>
+      <c r="Q20" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="R20" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
@@ -5347,7 +5780,7 @@
       <c r="B21" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="18" t="s">
         <v>349</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -5357,16 +5790,25 @@
         <v>350</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>341</v>
+        <v>330</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="R21" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="S21" s="16" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -5376,26 +5818,35 @@
       <c r="B22" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="18" t="s">
         <v>412</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>119</v>
+        <v>331</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>120</v>
+        <v>332</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="R22" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="S22" s="16" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -5405,43 +5856,73 @@
       <c r="B23" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>52</v>
+      <c r="E23" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>339</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>75</v>
+        <v>337</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>76</v>
+        <v>338</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="R23" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="S23" s="16" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>450</v>
+      <c r="C24" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>606</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>12</v>
+        <v>79</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="R24" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -5454,17 +5935,23 @@
       <c r="C25" s="2" t="s">
         <v>280</v>
       </c>
+      <c r="E25" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>639</v>
+      </c>
       <c r="H25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>78</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
@@ -5477,17 +5964,23 @@
       <c r="C26" s="2" t="s">
         <v>383</v>
       </c>
+      <c r="E26" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>641</v>
+      </c>
       <c r="H26" s="2" t="s">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -5497,683 +5990,719 @@
       <c r="B27" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="2" t="s">
         <v>409</v>
       </c>
+      <c r="E27" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>648</v>
+      </c>
       <c r="H27" s="2" t="s">
-        <v>336</v>
+        <v>52</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>355</v>
+        <v>493</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>67</v>
+        <v>494</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>411</v>
+        <v>559</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>408</v>
+        <v>28</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>645</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>336</v>
+        <v>51</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>356</v>
+        <v>553</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>57</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>321</v>
+        <v>411</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>322</v>
+      <c r="C29" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>647</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>307</v>
+        <v>555</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>123</v>
+        <v>556</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>425</v>
+        <v>321</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>426</v>
+      <c r="C30" s="18" t="s">
+        <v>322</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>326</v>
+        <v>578</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>304</v>
+        <v>577</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>312</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>386</v>
+        <v>283</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>425</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>52</v>
+        <v>301</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>64</v>
+        <v>580</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>65</v>
+        <v>577</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>62</v>
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>297</v>
+        <v>28</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>386</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>52</v>
+        <v>582</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>60</v>
+        <v>585</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>14</v>
+        <v>577</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>61</v>
+        <v>583</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>427</v>
+      <c r="C33" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>14</v>
+        <v>577</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>53</v>
+        <v>584</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>301</v>
+      <c r="C34" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>46</v>
+        <v>587</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>38</v>
+        <v>577</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>302</v>
+        <v>586</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>30</v>
+        <v>283</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>423</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>324</v>
+        <v>588</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>38</v>
+        <v>577</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>323</v>
+        <v>589</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>320</v>
+        <v>28</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>331</v>
+        <v>591</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>78</v>
+        <v>577</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>332</v>
+        <v>590</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>422</v>
+      <c r="C37" s="18" t="s">
+        <v>320</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>346</v>
+        <v>593</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>38</v>
+        <v>577</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>347</v>
+        <v>592</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>418</v>
+        <v>283</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>546</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>336</v>
+        <v>52</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>357</v>
+        <v>594</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>14</v>
+        <v>577</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>58</v>
+        <v>596</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>430</v>
+        <v>391</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>70</v>
+        <v>595</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>17</v>
+        <v>577</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>20</v>
+        <v>597</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>268</v>
+        <v>430</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C40" s="20" t="s">
-        <v>267</v>
+      <c r="C40" s="2" t="s">
+        <v>429</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>45</v>
+        <v>598</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>14</v>
+        <v>577</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>27</v>
+        <v>599</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>429</v>
+        <v>268</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>428</v>
+        <v>283</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>310</v>
+        <v>601</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>304</v>
+        <v>577</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>305</v>
+        <v>600</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>463</v>
+        <v>391</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>427</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>113</v>
+        <v>602</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>14</v>
+        <v>577</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>114</v>
+        <v>603</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C43" s="20" t="s">
-        <v>433</v>
+      <c r="C43" s="18" t="s">
+        <v>623</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>309</v>
+        <v>635</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>304</v>
+        <v>577</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>306</v>
+        <v>634</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>440</v>
+        <v>283</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>432</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>125</v>
+        <v>636</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>14</v>
+        <v>577</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>124</v>
+        <v>637</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>435</v>
+        <v>633</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>339</v>
+        <v>28</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>278</v>
+        <v>436</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>279</v>
+        <v>391</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>439</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>315</v>
+        <v>434</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H47" s="9" t="s">
+      <c r="C47" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>37</v>
+        <v>299</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>38</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>47</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>460</v>
+        <v>278</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>391</v>
+        <v>283</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>482</v>
+        <v>279</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>68</v>
+        <v>340</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>18</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>447</v>
+        <v>315</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>448</v>
+        <v>283</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>316</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>52</v>
+        <v>301</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>79</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>52</v>
+      <c r="C50" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>328</v>
+        <v>46</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>38</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>442</v>
+        <v>391</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>447</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>48</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>444</v>
+      <c r="C52" s="18" t="s">
+        <v>437</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>115</v>
+        <v>346</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>116</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="H53" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H53" s="9" t="s">
         <v>51</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>391</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>21</v>
+        <v>328</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>22</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>397</v>
+      </c>
       <c r="H55" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>445</v>
+      </c>
       <c r="H56" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>263</v>
+        <v>126</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>264</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H57" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -6181,13 +6710,13 @@
         <v>51</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -6195,41 +6724,41 @@
         <v>52</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>364</v>
+        <v>75</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>363</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H60" s="2" t="s">
-        <v>52</v>
+        <v>336</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>304</v>
+        <v>14</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>366</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H61" s="2" t="s">
-        <v>51</v>
+        <v>336</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>369</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -6237,13 +6766,473 @@
         <v>52</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>495</v>
+        <v>307</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>496</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H63" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H64" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H65" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H66" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H68" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H69" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H70" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="71" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H71" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H72" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H73" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="74" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H74" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="75" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H75" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="76" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H76" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="77" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H77" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H78" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H79" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H80" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H81" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H82" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H83" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H84" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="85" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H85" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="86" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H86" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="87" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H87" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="88" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H88" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="89" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H89" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="90" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H90" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="91" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H91" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="92" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H92" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="93" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H93" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K93" s="2"/>
+    </row>
+    <row r="94" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H94" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="95" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H95" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -6285,112 +7274,112 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="C4" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/Others/En France/Les mots.xlsx
+++ b/Others/En France/Les mots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igorromero/NotesInGeneral/Others/En France/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igorgomesromerovilela/Development/NotesInGeneral/Others/En France/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30F36BD-D776-C143-8C70-16FB5DCB5A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F0EBFD-5280-9447-B325-F4A991299022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16800" xr2:uid="{FAB4D674-A391-401D-ACEA-E0147A97A104}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{FAB4D674-A391-401D-ACEA-E0147A97A104}"/>
   </bookViews>
   <sheets>
     <sheet name="MOTS" sheetId="1" r:id="rId1"/>
@@ -189,6 +189,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>connaissez</t>
@@ -4151,6 +4152,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5001,7 +5003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF14E2DA-1F61-4D3E-BB06-34F5F1D5F3A2}">
   <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="142" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="142" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
